--- a/THE BEST OF THE BEST 2024.xlsx
+++ b/THE BEST OF THE BEST 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="86">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -34,7 +34,7 @@
     <t>The Upside Down</t>
   </si>
   <si>
-    <t xml:space="preserve">It HURTS being an Eagles fan </t>
+    <t xml:space="preserve">Off Script </t>
   </si>
   <si>
     <t>Taco Tuesday Everyday</t>
@@ -46,13 +46,13 @@
     <t>Crazy Kat</t>
   </si>
   <si>
-    <t>Terrell Suggs to be you</t>
+    <t>Rollin' with Mahomies</t>
   </si>
   <si>
     <t>Toon Squad</t>
   </si>
   <si>
-    <t>sports</t>
+    <t>Team Sunshine</t>
   </si>
   <si>
     <t>Team Rodriguez</t>
@@ -64,37 +64,49 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>12-0-0</t>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>9-4-1</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>7-6-1</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>10-3-1</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,34 +178,43 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑7</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓5</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -230,6 +251,12 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -666,43 +693,43 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -713,7 +740,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -722,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -731,25 +758,25 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -757,25 +784,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -784,19 +811,19 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -804,46 +831,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -851,46 +878,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -898,46 +925,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -945,46 +972,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
       <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
       <c r="N8" t="s">
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -992,46 +1019,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1042,43 +1069,43 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1086,46 +1113,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1133,46 +1160,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1180,46 +1207,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1227,43 +1254,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
         <v>15</v>
@@ -1274,46 +1301,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1331,13 +1358,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1345,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>5.071428571428571</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1359,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>5.142857142857143</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1373,13 +1400,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>5.214285714285714</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1387,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>5.428571428571429</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1401,13 +1428,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>5.642857142857143</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1415,13 +1442,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.642857142857143</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1429,13 +1456,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5.785714285714286</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1443,13 +1470,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1457,13 +1484,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1471,13 +1498,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7.571428571428571</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1485,13 +1512,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>6.5</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1499,13 +1526,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>6.785714285714286</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1513,13 +1540,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>6.928571428571429</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1527,13 +1554,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>7.857142857142857</v>
+        <v>8.857142857142858</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1551,16 +1578,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1568,16 +1595,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>10.21428571428571</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>-0.7857142857142865</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1585,16 +1612,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>8.714285714285714</v>
       </c>
       <c r="D3">
-        <v>0.7142857142857135</v>
+        <v>-0.2857142857142865</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1602,16 +1629,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>7.142857142857143</v>
+        <v>8.5</v>
       </c>
       <c r="D4">
-        <v>-2.857142857142857</v>
+        <v>-0.5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1619,16 +1646,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>7.142857142857143</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="D5">
-        <v>1.142857142857143</v>
+        <v>0.2142857142857135</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1636,13 +1663,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>7.071428571428571</v>
+        <v>7.928571428571429</v>
       </c>
       <c r="D6">
-        <v>0.07142857142857117</v>
+        <v>0.9285714285714288</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1653,16 +1680,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>6.785714285714286</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D7">
-        <v>-0.2142857142857144</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1670,16 +1697,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>6.357142857142857</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="D8">
-        <v>1.357142857142857</v>
+        <v>-0.1428571428571432</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1687,16 +1714,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>5.714285714285714</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="D9">
-        <v>-0.2857142857142856</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1707,13 +1734,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>5.285714285714286</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="D10">
-        <v>0.2857142857142856</v>
+        <v>-0.2857142857142856</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1721,16 +1748,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>4.714285714285714</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="D11">
-        <v>1.714285714285714</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1738,16 +1765,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6.071428571428571</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.07142857142857117</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1755,16 +1782,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3.857142857142857</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="D13">
-        <v>0.8571428571428572</v>
+        <v>-0.1428571428571432</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1772,16 +1799,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3.785714285714286</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="D14">
-        <v>-2.214285714285714</v>
+        <v>-0.5714285714285712</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1789,16 +1816,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>3.214285714285714</v>
+        <v>3.357142857142857</v>
       </c>
       <c r="D15">
-        <v>0.2142857142857144</v>
+        <v>-1.642857142857143</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1816,252 +1843,252 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>18.52</v>
+        <v>14.11</v>
       </c>
       <c r="C2">
-        <v>8.450000000000001</v>
+        <v>6.21</v>
       </c>
       <c r="D2">
-        <v>0.7100000000000001</v>
+        <v>1.93</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>7.93</v>
       </c>
       <c r="F2">
-        <v>0.3</v>
+        <v>17.93</v>
       </c>
       <c r="G2">
-        <v>6.3</v>
+        <v>12.08</v>
       </c>
       <c r="H2">
-        <v>24.62</v>
+        <v>2.67</v>
       </c>
       <c r="I2">
-        <v>15.85</v>
+        <v>0.23</v>
       </c>
       <c r="J2">
-        <v>2.42</v>
+        <v>1.97</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>8.42</v>
       </c>
       <c r="L2">
-        <v>0.06</v>
+        <v>11.67</v>
       </c>
       <c r="M2">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="N2">
         <v>1.79</v>
       </c>
-      <c r="N2">
-        <v>10.06</v>
-      </c>
       <c r="O2">
-        <v>10.88</v>
+        <v>6.35</v>
       </c>
       <c r="P2">
-        <v>74.77</v>
+        <v>63.09</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>13.27</v>
+        <v>11.94</v>
       </c>
       <c r="C3">
         <v>13.22</v>
       </c>
       <c r="D3">
-        <v>2.13</v>
+        <v>4.04</v>
       </c>
       <c r="E3">
-        <v>0.06999999999999999</v>
+        <v>1.93</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>9.77</v>
       </c>
       <c r="G3">
-        <v>1.83</v>
+        <v>19.23</v>
       </c>
       <c r="H3">
-        <v>15.12</v>
+        <v>12.28</v>
       </c>
       <c r="I3">
-        <v>24.76</v>
+        <v>2.08</v>
       </c>
       <c r="J3">
-        <v>7.27</v>
+        <v>0.39</v>
       </c>
       <c r="K3">
-        <v>0.48</v>
+        <v>3.15</v>
       </c>
       <c r="L3">
-        <v>0.02</v>
+        <v>8.41</v>
       </c>
       <c r="M3">
-        <v>0.6</v>
+        <v>7.77</v>
       </c>
       <c r="N3">
-        <v>7.68</v>
+        <v>2.22</v>
       </c>
       <c r="O3">
-        <v>13.53</v>
+        <v>3.57</v>
       </c>
       <c r="P3">
-        <v>70.42</v>
+        <v>74.49000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>12.88</v>
+        <v>11.29</v>
       </c>
       <c r="C4">
-        <v>1.52</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D4">
-        <v>0.02</v>
+        <v>2.06</v>
       </c>
       <c r="E4">
-        <v>0.28</v>
+        <v>3.94</v>
       </c>
       <c r="F4">
-        <v>7.01</v>
+        <v>14.52</v>
       </c>
       <c r="G4">
-        <v>21.59</v>
+        <v>17.79</v>
       </c>
       <c r="H4">
-        <v>15.25</v>
+        <v>6.23</v>
       </c>
       <c r="I4">
-        <v>2.43</v>
+        <v>0.59</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="K4">
-        <v>0.05</v>
+        <v>5.92</v>
       </c>
       <c r="L4">
-        <v>1.59</v>
+        <v>10.99</v>
       </c>
       <c r="M4">
-        <v>11.15</v>
+        <v>7.920000000000001</v>
       </c>
       <c r="N4">
-        <v>18.61</v>
+        <v>2.24</v>
       </c>
       <c r="O4">
-        <v>7.52</v>
+        <v>6.47</v>
       </c>
       <c r="P4">
-        <v>60.98</v>
+        <v>65.63</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>12.38</v>
-      </c>
       <c r="C5">
-        <v>3.23</v>
+        <v>3.11</v>
       </c>
       <c r="D5">
-        <v>0.11</v>
+        <v>2.99</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.01</v>
       </c>
       <c r="F5">
-        <v>1.86</v>
+        <v>16.26</v>
       </c>
       <c r="G5">
-        <v>16.03</v>
+        <v>7.53</v>
       </c>
       <c r="H5">
-        <v>22.13</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>7.290000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="J5">
-        <v>0.49</v>
+        <v>4.49</v>
       </c>
       <c r="K5">
-        <v>0.02</v>
+        <v>11.82</v>
       </c>
       <c r="L5">
-        <v>0.45</v>
+        <v>14.33</v>
       </c>
       <c r="M5">
-        <v>5.71</v>
+        <v>5.140000000000001</v>
       </c>
       <c r="N5">
-        <v>17.89</v>
+        <v>2.37</v>
       </c>
       <c r="O5">
-        <v>12.41</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="P5">
-        <v>63.03</v>
+        <v>52.32</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2069,499 +2096,499 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>11.48</v>
+        <v>8.19</v>
       </c>
       <c r="C6">
-        <v>17.85</v>
+        <v>2.2</v>
       </c>
       <c r="D6">
-        <v>6.02</v>
+        <v>4.95</v>
       </c>
       <c r="E6">
+        <v>12.92</v>
+      </c>
+      <c r="F6">
+        <v>11.36</v>
+      </c>
+      <c r="G6">
+        <v>3.49</v>
+      </c>
+      <c r="H6">
         <v>0.4</v>
       </c>
-      <c r="F6">
-        <v>0.01</v>
-      </c>
-      <c r="G6">
-        <v>0.28</v>
-      </c>
-      <c r="H6">
-        <v>6.83</v>
-      </c>
       <c r="I6">
-        <v>22.07</v>
+        <v>1.34</v>
       </c>
       <c r="J6">
-        <v>16.85</v>
+        <v>7.31</v>
       </c>
       <c r="K6">
-        <v>1.89</v>
+        <v>16.96</v>
       </c>
       <c r="L6">
-        <v>0.06999999999999999</v>
+        <v>11.98</v>
       </c>
       <c r="M6">
-        <v>0.33</v>
+        <v>3.02</v>
       </c>
       <c r="N6">
-        <v>4.04</v>
+        <v>3.95</v>
       </c>
       <c r="O6">
-        <v>11.88</v>
+        <v>11.93</v>
       </c>
       <c r="P6">
-        <v>64.94</v>
+        <v>44.85</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>6.88</v>
+        <v>7.75</v>
       </c>
       <c r="C7">
-        <v>17.84</v>
+        <v>13.91</v>
       </c>
       <c r="D7">
-        <v>10.81</v>
+        <v>6.59</v>
       </c>
       <c r="E7">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>4.9</v>
       </c>
       <c r="G7">
-        <v>0.04</v>
+        <v>16.46</v>
       </c>
       <c r="H7">
-        <v>2.1</v>
+        <v>17.46</v>
       </c>
       <c r="I7">
-        <v>15.1</v>
+        <v>5.57</v>
       </c>
       <c r="J7">
-        <v>21.83</v>
+        <v>0.48</v>
       </c>
       <c r="K7">
-        <v>8.119999999999999</v>
+        <v>2.59</v>
       </c>
       <c r="L7">
-        <v>0.35</v>
+        <v>7.51</v>
       </c>
       <c r="M7">
-        <v>0.09</v>
+        <v>8.110000000000001</v>
       </c>
       <c r="N7">
-        <v>2.42</v>
+        <v>3.39</v>
       </c>
       <c r="O7">
-        <v>12.79</v>
+        <v>4.01</v>
       </c>
       <c r="P7">
-        <v>54.4</v>
+        <v>73.91</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>5.510000000000001</v>
+        <v>7.31</v>
       </c>
       <c r="C8">
-        <v>0.29</v>
+        <v>2.28</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7.07</v>
       </c>
       <c r="E8">
-        <v>1.68</v>
+        <v>12.92</v>
       </c>
       <c r="F8">
-        <v>10.96</v>
+        <v>7.84</v>
       </c>
       <c r="G8">
-        <v>17.09</v>
+        <v>2.07</v>
       </c>
       <c r="H8">
-        <v>7.290000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="I8">
-        <v>0.54</v>
+        <v>3.06</v>
       </c>
       <c r="J8">
-        <v>0.02</v>
+        <v>13.12</v>
       </c>
       <c r="K8">
-        <v>0.6899999999999999</v>
+        <v>17.24</v>
       </c>
       <c r="L8">
-        <v>7.180000000000001</v>
+        <v>7.489999999999999</v>
       </c>
       <c r="M8">
-        <v>22.97</v>
+        <v>1.63</v>
       </c>
       <c r="N8">
-        <v>21.09</v>
+        <v>5.57</v>
       </c>
       <c r="O8">
-        <v>4.69</v>
+        <v>12.16</v>
       </c>
       <c r="P8">
-        <v>43.36</v>
+        <v>42.79000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>5.07</v>
+        <v>6.959999999999999</v>
       </c>
       <c r="C9">
-        <v>0.06999999999999999</v>
+        <v>2.93</v>
       </c>
       <c r="D9">
-        <v>0.61</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="E9">
-        <v>6.34</v>
+        <v>12.21</v>
       </c>
       <c r="F9">
-        <v>15.08</v>
+        <v>6.27</v>
       </c>
       <c r="G9">
-        <v>10.27</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="H9">
-        <v>1.69</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="I9">
-        <v>0.08</v>
+        <v>6.17</v>
       </c>
       <c r="J9">
-        <v>1.2</v>
+        <v>17.14</v>
       </c>
       <c r="K9">
-        <v>9.790000000000001</v>
+        <v>14.21</v>
       </c>
       <c r="L9">
-        <v>26.03</v>
+        <v>3.77</v>
       </c>
       <c r="M9">
-        <v>19.05</v>
+        <v>1.52</v>
       </c>
       <c r="N9">
-        <v>4.46</v>
+        <v>7.51</v>
       </c>
       <c r="O9">
-        <v>0.26</v>
+        <v>10.65</v>
       </c>
       <c r="P9">
-        <v>39.20999999999999</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>4.87</v>
+        <v>6.92</v>
       </c>
       <c r="C10">
-        <v>0.22</v>
+        <v>17.73</v>
       </c>
       <c r="D10">
-        <v>0.3</v>
+        <v>13.3</v>
       </c>
       <c r="E10">
-        <v>3.9</v>
+        <v>3.62</v>
       </c>
       <c r="F10">
-        <v>13.16</v>
+        <v>1.79</v>
       </c>
       <c r="G10">
-        <v>13.82</v>
+        <v>10.54</v>
       </c>
       <c r="H10">
-        <v>3.47</v>
+        <v>18.24</v>
       </c>
       <c r="I10">
-        <v>0.14</v>
+        <v>10.39</v>
       </c>
       <c r="J10">
-        <v>0.14</v>
+        <v>1.58</v>
       </c>
       <c r="K10">
-        <v>3.26</v>
+        <v>1.13</v>
       </c>
       <c r="L10">
-        <v>17.37</v>
+        <v>4.51</v>
       </c>
       <c r="M10">
-        <v>26.36</v>
+        <v>5.67</v>
       </c>
       <c r="N10">
-        <v>11.72</v>
+        <v>2.76</v>
       </c>
       <c r="O10">
-        <v>1.27</v>
+        <v>1.82</v>
       </c>
       <c r="P10">
-        <v>39.88</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>3.99</v>
+        <v>5.64</v>
       </c>
       <c r="C11">
-        <v>15.32</v>
+        <v>3.7</v>
       </c>
       <c r="D11">
-        <v>16.51</v>
+        <v>10.39</v>
       </c>
       <c r="E11">
-        <v>4.46</v>
+        <v>10.21</v>
       </c>
       <c r="F11">
-        <v>0.27</v>
+        <v>3.73</v>
       </c>
       <c r="G11">
-        <v>0.01</v>
+        <v>0.49</v>
       </c>
       <c r="H11">
-        <v>0.49</v>
+        <v>2.13</v>
       </c>
       <c r="I11">
-        <v>7.52</v>
+        <v>11.43</v>
       </c>
       <c r="J11">
-        <v>20.7</v>
+        <v>18.61</v>
       </c>
       <c r="K11">
-        <v>15.16</v>
+        <v>9.16</v>
       </c>
       <c r="L11">
-        <v>2.53</v>
+        <v>1.69</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>2.64</v>
       </c>
       <c r="N11">
-        <v>1.02</v>
+        <v>10.4</v>
       </c>
       <c r="O11">
-        <v>11.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P11">
-        <v>48.57</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>2.88</v>
+        <v>4.36</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>4.19</v>
       </c>
       <c r="D12">
-        <v>1.18</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="E12">
-        <v>7.580000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="F12">
-        <v>12.13</v>
+        <v>1.91</v>
       </c>
       <c r="G12">
-        <v>5.79</v>
+        <v>0.47</v>
       </c>
       <c r="H12">
-        <v>0.58</v>
+        <v>5.16</v>
       </c>
       <c r="I12">
-        <v>0.34</v>
+        <v>17.42</v>
       </c>
       <c r="J12">
-        <v>5.600000000000001</v>
+        <v>16.24</v>
       </c>
       <c r="K12">
-        <v>25.69</v>
+        <v>4.97</v>
       </c>
       <c r="L12">
-        <v>27.52</v>
+        <v>1.12</v>
       </c>
       <c r="M12">
-        <v>9.83</v>
+        <v>5.08</v>
       </c>
       <c r="N12">
-        <v>0.86</v>
+        <v>13.13</v>
       </c>
       <c r="O12">
-        <v>0.02</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="P12">
-        <v>30.48</v>
+        <v>50.51</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>1.75</v>
+        <v>3.9</v>
       </c>
       <c r="C13">
-        <v>12.49</v>
+        <v>17.25</v>
       </c>
       <c r="D13">
-        <v>20.83</v>
+        <v>20.98</v>
       </c>
       <c r="E13">
-        <v>10.3</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="F13">
-        <v>1.4</v>
+        <v>2.36</v>
       </c>
       <c r="G13">
-        <v>0.02</v>
+        <v>5.36</v>
       </c>
       <c r="H13">
-        <v>0.05</v>
+        <v>15.24</v>
       </c>
       <c r="I13">
-        <v>2.82</v>
+        <v>12.86</v>
       </c>
       <c r="J13">
-        <v>14.73</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="K13">
-        <v>18.18</v>
+        <v>0.77</v>
       </c>
       <c r="L13">
-        <v>6.88</v>
+        <v>2.54</v>
       </c>
       <c r="M13">
-        <v>0.52</v>
+        <v>3.72</v>
       </c>
       <c r="N13">
-        <v>0.13</v>
+        <v>1.77</v>
       </c>
       <c r="O13">
-        <v>9.9</v>
+        <v>0.95</v>
       </c>
       <c r="P13">
-        <v>49.66</v>
+        <v>86.91999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>2.44</v>
       </c>
       <c r="C14">
-        <v>7.99</v>
+        <v>3.42</v>
       </c>
       <c r="D14">
-        <v>25.78</v>
+        <v>6.19</v>
       </c>
       <c r="E14">
-        <v>26.87</v>
+        <v>3.84</v>
       </c>
       <c r="F14">
-        <v>7.26</v>
+        <v>1.08</v>
       </c>
       <c r="G14">
-        <v>0.53</v>
+        <v>1.48</v>
       </c>
       <c r="H14">
-        <v>0.01</v>
+        <v>10.39</v>
       </c>
       <c r="I14">
-        <v>0.8699999999999999</v>
+        <v>18.33</v>
       </c>
       <c r="J14">
-        <v>6.74</v>
+        <v>10.5</v>
       </c>
       <c r="K14">
-        <v>12.57</v>
+        <v>1.94</v>
       </c>
       <c r="L14">
-        <v>7.290000000000001</v>
+        <v>2.15</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>11.73</v>
       </c>
       <c r="N14">
-        <v>0.02</v>
+        <v>18.66</v>
       </c>
       <c r="O14">
-        <v>2.57</v>
+        <v>7.85</v>
       </c>
       <c r="P14">
-        <v>69.81</v>
+        <v>47.16999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="C15">
-        <v>1.51</v>
+        <v>0.64</v>
       </c>
       <c r="D15">
-        <v>14.99</v>
+        <v>1.09</v>
       </c>
       <c r="E15">
-        <v>36.55</v>
+        <v>0.61</v>
       </c>
       <c r="F15">
-        <v>30.46</v>
+        <v>0.28</v>
       </c>
       <c r="G15">
-        <v>6.4</v>
+        <v>2.07</v>
       </c>
       <c r="H15">
-        <v>0.37</v>
+        <v>7.82</v>
       </c>
       <c r="I15">
-        <v>0.19</v>
+        <v>10.17</v>
       </c>
       <c r="J15">
-        <v>1.91</v>
+        <v>4.01</v>
       </c>
       <c r="K15">
-        <v>4.08</v>
+        <v>1.72</v>
       </c>
       <c r="L15">
-        <v>2.66</v>
+        <v>11.84</v>
       </c>
       <c r="M15">
-        <v>0.5599999999999999</v>
+        <v>29.34</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>24.24</v>
       </c>
       <c r="O15">
-        <v>0.3</v>
+        <v>5.98</v>
       </c>
       <c r="P15">
-        <v>90.49000000000001</v>
+        <v>22.87</v>
       </c>
     </row>
   </sheetData>
@@ -2579,16 +2606,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2596,16 +2623,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2613,16 +2640,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2630,16 +2657,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2647,16 +2674,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2664,16 +2691,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2681,16 +2708,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2698,16 +2725,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2715,16 +2742,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2732,16 +2759,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2749,16 +2776,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2766,16 +2793,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>-21</v>
+        <v>-9</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2783,16 +2810,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>-24</v>
+        <v>-11</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2800,16 +2827,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>-33</v>
+        <v>-26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2817,16 +2844,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>-49</v>
+        <v>-66</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2836,667 +2863,757 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>77</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>-4</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
+      <c r="I2">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>21</v>
+      </c>
+      <c r="M2">
+        <v>24</v>
+      </c>
+      <c r="N2">
+        <v>26</v>
+      </c>
+      <c r="O2">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-2</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
         <v>11</v>
       </c>
-      <c r="F2">
-        <v>21</v>
-      </c>
-      <c r="G2">
-        <v>22</v>
-      </c>
-      <c r="H2">
-        <v>31</v>
-      </c>
-      <c r="I2">
-        <v>32</v>
-      </c>
-      <c r="J2">
-        <v>39</v>
-      </c>
-      <c r="K2">
-        <v>45</v>
-      </c>
-      <c r="L2">
-        <v>51</v>
-      </c>
-      <c r="M2">
-        <v>62</v>
-      </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>17</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>18</v>
-      </c>
-      <c r="I3">
-        <v>27</v>
-      </c>
-      <c r="J3">
-        <v>33</v>
-      </c>
-      <c r="K3">
-        <v>32</v>
-      </c>
-      <c r="L3">
-        <v>33</v>
-      </c>
-      <c r="M3">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>3</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
       </c>
       <c r="E4">
         <v>13</v>
       </c>
       <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>21</v>
+      </c>
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4">
         <v>17</v>
       </c>
-      <c r="H4">
-        <v>22</v>
-      </c>
-      <c r="I4">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>21</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>17</v>
-      </c>
       <c r="J5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="G6">
         <v>-4</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M6">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6">
+        <v>10</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>19</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>11</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>13</v>
-      </c>
-      <c r="M7">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-10</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="D9">
+        <v>-4</v>
+      </c>
+      <c r="E9">
+        <v>-4</v>
+      </c>
+      <c r="F9">
+        <v>-5</v>
+      </c>
+      <c r="G9">
+        <v>-3</v>
+      </c>
+      <c r="H9">
+        <v>-7</v>
+      </c>
+      <c r="I9">
         <v>-8</v>
-      </c>
-      <c r="C8">
-        <v>-8</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>11</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-6</v>
-      </c>
-      <c r="G9">
-        <v>-5</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
       </c>
       <c r="J9">
         <v>-3</v>
       </c>
       <c r="K9">
+        <v>-10</v>
+      </c>
+      <c r="L9">
+        <v>-8</v>
+      </c>
+      <c r="M9">
+        <v>-3</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <v>-6</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>-8</v>
+      </c>
+      <c r="H10">
+        <v>-2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>-7</v>
       </c>
-      <c r="L9">
+      <c r="C11">
         <v>-10</v>
       </c>
-      <c r="M9">
+      <c r="D11">
+        <v>-9</v>
+      </c>
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-3</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>-4</v>
+      </c>
+      <c r="O11">
+        <v>-3</v>
+      </c>
+      <c r="P11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>-9</v>
+      </c>
+      <c r="C12">
+        <v>-14</v>
+      </c>
+      <c r="D12">
+        <v>-6</v>
+      </c>
+      <c r="E12">
+        <v>-9</v>
+      </c>
+      <c r="F12">
+        <v>-10</v>
+      </c>
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="H12">
+        <v>-9</v>
+      </c>
+      <c r="I12">
+        <v>-12</v>
+      </c>
+      <c r="J12">
+        <v>-13</v>
+      </c>
+      <c r="K12">
+        <v>-10</v>
+      </c>
+      <c r="L12">
+        <v>-7</v>
+      </c>
+      <c r="M12">
         <v>-5</v>
       </c>
-      <c r="N9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
+      <c r="N12">
+        <v>-3</v>
+      </c>
+      <c r="O12">
+        <v>-9</v>
+      </c>
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>-4</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>-2</v>
+      </c>
+      <c r="I13">
+        <v>-8</v>
+      </c>
+      <c r="J13">
+        <v>-5</v>
+      </c>
+      <c r="K13">
+        <v>-4</v>
+      </c>
+      <c r="L13">
+        <v>-2</v>
+      </c>
+      <c r="M13">
+        <v>-3</v>
+      </c>
+      <c r="N13">
+        <v>-2</v>
+      </c>
+      <c r="O13">
+        <v>-11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>-9</v>
+      </c>
+      <c r="C14">
+        <v>-3</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>-2</v>
+      </c>
+      <c r="F14">
+        <v>-4</v>
+      </c>
+      <c r="G14">
         <v>-6</v>
       </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <v>-9</v>
-      </c>
-      <c r="E10">
+      <c r="H14">
         <v>-10</v>
       </c>
-      <c r="F10">
+      <c r="I14">
+        <v>-13</v>
+      </c>
+      <c r="J14">
+        <v>-10</v>
+      </c>
+      <c r="K14">
+        <v>-10</v>
+      </c>
+      <c r="L14">
+        <v>-16</v>
+      </c>
+      <c r="M14">
+        <v>-23</v>
+      </c>
+      <c r="N14">
+        <v>-23</v>
+      </c>
+      <c r="O14">
+        <v>-26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>-3</v>
+      </c>
+      <c r="D15">
+        <v>-8</v>
+      </c>
+      <c r="E15">
         <v>-15</v>
       </c>
-      <c r="G10">
-        <v>-15</v>
-      </c>
-      <c r="H10">
-        <v>-21</v>
-      </c>
-      <c r="I10">
-        <v>-19</v>
-      </c>
-      <c r="J10">
-        <v>-14</v>
-      </c>
-      <c r="K10">
-        <v>-20</v>
-      </c>
-      <c r="L10">
-        <v>-21</v>
-      </c>
-      <c r="M10">
-        <v>-13</v>
-      </c>
-      <c r="N10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-8</v>
-      </c>
-      <c r="C11">
-        <v>-3</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-2</v>
-      </c>
-      <c r="G11">
-        <v>-8</v>
-      </c>
-      <c r="H11">
-        <v>-9</v>
-      </c>
-      <c r="I11">
-        <v>-12</v>
-      </c>
-      <c r="J11">
-        <v>-13</v>
-      </c>
-      <c r="K11">
-        <v>-15</v>
-      </c>
-      <c r="L11">
-        <v>-9</v>
-      </c>
-      <c r="M11">
-        <v>-15</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>-2</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>-4</v>
-      </c>
-      <c r="E12">
-        <v>-7</v>
-      </c>
-      <c r="F12">
-        <v>-12</v>
-      </c>
-      <c r="G12">
-        <v>-20</v>
-      </c>
-      <c r="H12">
+      <c r="F15">
+        <v>-16</v>
+      </c>
+      <c r="G15">
+        <v>-23</v>
+      </c>
+      <c r="H15">
         <v>-29</v>
       </c>
-      <c r="I12">
-        <v>-30</v>
-      </c>
-      <c r="J12">
-        <v>-30</v>
-      </c>
-      <c r="K12">
-        <v>-21</v>
-      </c>
-      <c r="L12">
-        <v>-19</v>
-      </c>
-      <c r="M12">
-        <v>-21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>-3</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13">
-        <v>-8</v>
-      </c>
-      <c r="G13">
-        <v>-9</v>
-      </c>
-      <c r="H13">
-        <v>-12</v>
-      </c>
-      <c r="I13">
-        <v>-19</v>
-      </c>
-      <c r="J13">
-        <v>-21</v>
-      </c>
-      <c r="K13">
-        <v>-23</v>
-      </c>
-      <c r="L13">
-        <v>-22</v>
-      </c>
-      <c r="M13">
-        <v>-24</v>
-      </c>
-      <c r="N13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>-3</v>
-      </c>
-      <c r="C14">
-        <v>-5</v>
-      </c>
-      <c r="D14">
-        <v>-10</v>
-      </c>
-      <c r="E14">
-        <v>-20</v>
-      </c>
-      <c r="F14">
-        <v>-15</v>
-      </c>
-      <c r="G14">
-        <v>-19</v>
-      </c>
-      <c r="H14">
-        <v>-27</v>
-      </c>
-      <c r="I14">
-        <v>-27</v>
-      </c>
-      <c r="J14">
+      <c r="I15">
         <v>-33</v>
       </c>
-      <c r="K14">
-        <v>-35</v>
-      </c>
-      <c r="L14">
-        <v>-30</v>
-      </c>
-      <c r="M14">
-        <v>-33</v>
-      </c>
-      <c r="N14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>-2</v>
-      </c>
-      <c r="D15">
-        <v>-5</v>
-      </c>
-      <c r="E15">
-        <v>-7</v>
-      </c>
-      <c r="F15">
-        <v>-6</v>
-      </c>
-      <c r="G15">
-        <v>-6</v>
-      </c>
-      <c r="H15">
-        <v>-14</v>
-      </c>
-      <c r="I15">
-        <v>-22</v>
-      </c>
       <c r="J15">
-        <v>-32</v>
+        <v>-38</v>
       </c>
       <c r="K15">
-        <v>-34</v>
+        <v>-46</v>
       </c>
       <c r="L15">
-        <v>-45</v>
+        <v>-56</v>
       </c>
       <c r="M15">
-        <v>-49</v>
-      </c>
-      <c r="N15" t="s">
-        <v>57</v>
+        <v>-58</v>
+      </c>
+      <c r="N15">
+        <v>-58</v>
+      </c>
+      <c r="O15">
+        <v>-66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3623,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3514,25 +3631,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3540,25 +3657,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>-66</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3566,25 +3683,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>-24</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>-38</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3592,25 +3709,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3618,25 +3735,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>-16</v>
       </c>
       <c r="F5">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3644,25 +3761,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="F6">
-        <v>-49</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3670,25 +3787,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-33</v>
       </c>
       <c r="F7">
-        <v>-33</v>
+        <v>-8</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3696,25 +3813,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>-23</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3722,25 +3839,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-12</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>-10</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3751,22 +3868,74 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>-9</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>-6</v>
-      </c>
-      <c r="F10">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="G10">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
+      <c r="H12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/THE BEST OF THE BEST 2024.xlsx
+++ b/THE BEST OF THE BEST 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="77">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -34,7 +34,7 @@
     <t>The Upside Down</t>
   </si>
   <si>
-    <t xml:space="preserve">Off Script </t>
+    <t xml:space="preserve">It HURTS being an Eagles fan </t>
   </si>
   <si>
     <t>Taco Tuesday Everyday</t>
@@ -46,13 +46,13 @@
     <t>Crazy Kat</t>
   </si>
   <si>
-    <t>Rollin' with Mahomies</t>
+    <t>Terrell Suggs to be you</t>
   </si>
   <si>
     <t>Toon Squad</t>
   </si>
   <si>
-    <t>Team Sunshine</t>
+    <t>sports</t>
   </si>
   <si>
     <t>Team Rodriguez</t>
@@ -64,49 +64,37 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>9-4-1</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>7-6-1</t>
-  </si>
-  <si>
-    <t>2-12-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>10-3-1</t>
-  </si>
-  <si>
-    <t>6-7-1</t>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>12-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -178,43 +166,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑8</t>
   </si>
   <si>
     <t>↓6</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -251,12 +230,6 @@
   </si>
   <si>
     <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -693,43 +666,43 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -740,7 +713,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -749,7 +722,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -758,25 +731,25 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -784,25 +757,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -811,19 +784,19 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -831,46 +804,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -878,46 +851,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
         <v>18</v>
       </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -925,46 +898,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -972,46 +945,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
         <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1019,46 +992,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1069,43 +1042,43 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>15</v>
       </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1113,46 +1086,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1160,46 +1133,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1207,46 +1180,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1254,43 +1227,43 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
       <c r="K14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
         <v>18</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>15</v>
       </c>
       <c r="O14" t="s">
         <v>15</v>
@@ -1301,46 +1274,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1358,13 +1331,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1372,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>5.285714285714286</v>
+        <v>5.071428571428571</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1386,13 +1359,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5.142857142857143</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1400,13 +1373,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5.214285714285714</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1414,10 +1387,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>6.285714285714286</v>
+        <v>5.428571428571429</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1428,13 +1401,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.357142857142857</v>
+        <v>5.642857142857143</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1442,13 +1415,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>6.428571428571429</v>
+        <v>5.642857142857143</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1456,13 +1429,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.571428571428571</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1470,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>7.214285714285714</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1484,13 +1457,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>7.571428571428571</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1498,13 +1471,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>7.571428571428571</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1512,13 +1485,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>7.714285714285714</v>
+        <v>6.5</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1526,13 +1499,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1540,13 +1513,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>6.928571428571429</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1554,13 +1527,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>8.857142857142858</v>
+        <v>7.857142857142857</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1578,16 +1551,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1595,16 +1568,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>10.21428571428571</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.7857142857142865</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1612,16 +1585,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>8.714285714285714</v>
       </c>
       <c r="D3">
-        <v>-0.2857142857142865</v>
+        <v>0.7142857142857135</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1629,16 +1602,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.5</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D4">
-        <v>-0.5</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1646,16 +1619,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>8.214285714285714</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D5">
-        <v>0.2142857142857135</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1663,13 +1636,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>7.928571428571429</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D6">
-        <v>0.9285714285714288</v>
+        <v>0.07142857142857117</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1680,16 +1653,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.142857142857143</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="D7">
-        <v>1.142857142857143</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1697,16 +1670,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>6.857142857142857</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D8">
-        <v>-0.1428571428571432</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1714,16 +1687,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.785714285714286</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D9">
-        <v>1.785714285714286</v>
+        <v>-0.2857142857142856</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1734,13 +1707,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>6.714285714285714</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D10">
-        <v>-0.2857142857142856</v>
+        <v>0.2857142857142856</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1748,16 +1721,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.285714285714286</v>
+        <v>4.714285714285714</v>
       </c>
       <c r="D11">
-        <v>0.2857142857142856</v>
+        <v>1.714285714285714</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1765,16 +1738,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>6.071428571428571</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>0.07142857142857117</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1782,16 +1755,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>5.857142857142857</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="D13">
-        <v>-0.1428571428571432</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1799,16 +1772,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5.428571428571429</v>
+        <v>3.785714285714286</v>
       </c>
       <c r="D14">
-        <v>-0.5714285714285712</v>
+        <v>-2.214285714285714</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1816,16 +1789,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>3.357142857142857</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="D15">
-        <v>-1.642857142857143</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1843,252 +1816,252 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>14.11</v>
+        <v>17.94</v>
       </c>
       <c r="C2">
-        <v>6.21</v>
+        <v>8.75</v>
       </c>
       <c r="D2">
-        <v>1.93</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="E2">
-        <v>7.93</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
-        <v>17.93</v>
+        <v>0.19</v>
       </c>
       <c r="G2">
-        <v>12.08</v>
+        <v>6.460000000000001</v>
       </c>
       <c r="H2">
-        <v>2.67</v>
+        <v>24.83</v>
       </c>
       <c r="I2">
-        <v>0.23</v>
+        <v>16.22</v>
       </c>
       <c r="J2">
-        <v>1.97</v>
+        <v>2.28</v>
       </c>
       <c r="K2">
-        <v>8.42</v>
+        <v>0.02</v>
       </c>
       <c r="L2">
-        <v>11.67</v>
+        <v>0.05</v>
       </c>
       <c r="M2">
-        <v>6.710000000000001</v>
+        <v>1.62</v>
       </c>
       <c r="N2">
-        <v>1.79</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="O2">
-        <v>6.35</v>
+        <v>10.91</v>
       </c>
       <c r="P2">
-        <v>63.09</v>
+        <v>75.23999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>11.94</v>
+        <v>13.67</v>
       </c>
       <c r="C3">
-        <v>13.22</v>
+        <v>12.31</v>
       </c>
       <c r="D3">
-        <v>4.04</v>
+        <v>2.41</v>
       </c>
       <c r="E3">
-        <v>1.93</v>
+        <v>0.08</v>
       </c>
       <c r="F3">
-        <v>9.77</v>
+        <v>0.02</v>
       </c>
       <c r="G3">
-        <v>19.23</v>
+        <v>1.62</v>
       </c>
       <c r="H3">
-        <v>12.28</v>
+        <v>15.33</v>
       </c>
       <c r="I3">
-        <v>2.08</v>
+        <v>25.49</v>
       </c>
       <c r="J3">
-        <v>0.39</v>
+        <v>7.57</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>0.35</v>
       </c>
       <c r="L3">
-        <v>8.41</v>
+        <v>0.02</v>
       </c>
       <c r="M3">
-        <v>7.77</v>
+        <v>0.84</v>
       </c>
       <c r="N3">
-        <v>2.22</v>
+        <v>7.17</v>
       </c>
       <c r="O3">
-        <v>3.57</v>
+        <v>13.12</v>
       </c>
       <c r="P3">
-        <v>74.49000000000001</v>
+        <v>70.93000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>11.29</v>
+        <v>12.93</v>
       </c>
       <c r="C4">
-        <v>9.210000000000001</v>
+        <v>1.67</v>
       </c>
       <c r="D4">
-        <v>2.06</v>
+        <v>0.02</v>
       </c>
       <c r="E4">
-        <v>3.94</v>
+        <v>0.16</v>
       </c>
       <c r="F4">
-        <v>14.52</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G4">
-        <v>17.79</v>
+        <v>22.43</v>
       </c>
       <c r="H4">
-        <v>6.23</v>
+        <v>14.9</v>
       </c>
       <c r="I4">
-        <v>0.59</v>
+        <v>2.38</v>
       </c>
       <c r="J4">
-        <v>0.83</v>
+        <v>0.05</v>
       </c>
       <c r="K4">
-        <v>5.92</v>
+        <v>0.06</v>
       </c>
       <c r="L4">
-        <v>10.99</v>
+        <v>1.53</v>
       </c>
       <c r="M4">
-        <v>7.920000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="N4">
-        <v>2.24</v>
+        <v>18.14</v>
       </c>
       <c r="O4">
-        <v>6.47</v>
+        <v>7.9</v>
       </c>
       <c r="P4">
-        <v>65.63</v>
+        <v>61.69</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>12.41</v>
       </c>
       <c r="C5">
-        <v>3.11</v>
+        <v>3.330000000000001</v>
       </c>
       <c r="D5">
-        <v>2.99</v>
+        <v>0.15</v>
       </c>
       <c r="E5">
-        <v>12.01</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>16.26</v>
+        <v>1.72</v>
       </c>
       <c r="G5">
-        <v>7.53</v>
+        <v>16.54</v>
       </c>
       <c r="H5">
-        <v>1.06</v>
+        <v>22.51</v>
       </c>
       <c r="I5">
-        <v>0.36</v>
+        <v>6.710000000000001</v>
       </c>
       <c r="J5">
-        <v>4.49</v>
+        <v>0.33</v>
       </c>
       <c r="K5">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.33</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>5.140000000000001</v>
+        <v>5.88</v>
       </c>
       <c r="N5">
-        <v>2.37</v>
+        <v>17.41</v>
       </c>
       <c r="O5">
-        <v>9.529999999999999</v>
+        <v>12.51</v>
       </c>
       <c r="P5">
-        <v>52.32</v>
+        <v>63.37</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2096,499 +2069,499 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>8.19</v>
+        <v>11.19</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>17.27</v>
       </c>
       <c r="D6">
-        <v>4.95</v>
+        <v>6.08</v>
       </c>
       <c r="E6">
-        <v>12.92</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
-        <v>11.36</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3.49</v>
+        <v>0.32</v>
       </c>
       <c r="H6">
-        <v>0.4</v>
+        <v>6.27</v>
       </c>
       <c r="I6">
-        <v>1.34</v>
+        <v>22.13</v>
       </c>
       <c r="J6">
-        <v>7.31</v>
+        <v>17.67</v>
       </c>
       <c r="K6">
-        <v>16.96</v>
+        <v>2.37</v>
       </c>
       <c r="L6">
-        <v>11.98</v>
+        <v>0.03</v>
       </c>
       <c r="M6">
-        <v>3.02</v>
+        <v>0.27</v>
       </c>
       <c r="N6">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="O6">
-        <v>11.93</v>
+        <v>11.84</v>
       </c>
       <c r="P6">
-        <v>44.85</v>
+        <v>63.86</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>7.75</v>
+        <v>7.32</v>
       </c>
       <c r="C7">
-        <v>13.91</v>
+        <v>17.83</v>
       </c>
       <c r="D7">
-        <v>6.59</v>
+        <v>10.39</v>
       </c>
       <c r="E7">
-        <v>1.27</v>
+        <v>1.68</v>
       </c>
       <c r="F7">
-        <v>4.9</v>
+        <v>0.06</v>
       </c>
       <c r="G7">
-        <v>16.46</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
-        <v>17.46</v>
+        <v>2.37</v>
       </c>
       <c r="I7">
-        <v>5.57</v>
+        <v>14.57</v>
       </c>
       <c r="J7">
-        <v>0.48</v>
+        <v>21.66</v>
       </c>
       <c r="K7">
-        <v>2.59</v>
+        <v>8.08</v>
       </c>
       <c r="L7">
-        <v>7.51</v>
+        <v>0.49</v>
       </c>
       <c r="M7">
-        <v>8.110000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="N7">
-        <v>3.39</v>
+        <v>2.83</v>
       </c>
       <c r="O7">
-        <v>4.01</v>
+        <v>12.5</v>
       </c>
       <c r="P7">
-        <v>73.91</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>7.31</v>
+        <v>5.72</v>
       </c>
       <c r="C8">
-        <v>2.28</v>
+        <v>0.39</v>
       </c>
       <c r="D8">
-        <v>7.07</v>
+        <v>0.02</v>
       </c>
       <c r="E8">
-        <v>12.92</v>
+        <v>1.9</v>
       </c>
       <c r="F8">
-        <v>7.84</v>
+        <v>11.83</v>
       </c>
       <c r="G8">
-        <v>2.07</v>
+        <v>16.24</v>
       </c>
       <c r="H8">
-        <v>0.24</v>
+        <v>7.01</v>
       </c>
       <c r="I8">
-        <v>3.06</v>
+        <v>0.67</v>
       </c>
       <c r="J8">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.24</v>
+        <v>0.59</v>
       </c>
       <c r="L8">
-        <v>7.489999999999999</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="M8">
-        <v>1.63</v>
+        <v>22.61</v>
       </c>
       <c r="N8">
-        <v>5.57</v>
+        <v>21.11</v>
       </c>
       <c r="O8">
-        <v>12.16</v>
+        <v>4.73</v>
       </c>
       <c r="P8">
-        <v>42.79000000000001</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>6.959999999999999</v>
+        <v>5.25</v>
       </c>
       <c r="C9">
-        <v>2.93</v>
+        <v>0.12</v>
       </c>
       <c r="D9">
-        <v>9.039999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="E9">
-        <v>12.21</v>
+        <v>4.04</v>
       </c>
       <c r="F9">
-        <v>6.27</v>
+        <v>13.11</v>
       </c>
       <c r="G9">
-        <v>0.9400000000000001</v>
+        <v>13.07</v>
       </c>
       <c r="H9">
-        <v>0.6799999999999999</v>
+        <v>3.66</v>
       </c>
       <c r="I9">
-        <v>6.17</v>
+        <v>0.16</v>
       </c>
       <c r="J9">
-        <v>17.14</v>
+        <v>0.24</v>
       </c>
       <c r="K9">
-        <v>14.21</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>3.77</v>
+        <v>17.2</v>
       </c>
       <c r="M9">
-        <v>1.52</v>
+        <v>26.13</v>
       </c>
       <c r="N9">
-        <v>7.51</v>
+        <v>12.43</v>
       </c>
       <c r="O9">
-        <v>10.65</v>
+        <v>1.34</v>
       </c>
       <c r="P9">
-        <v>45.2</v>
+        <v>39.66</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>6.92</v>
+        <v>4.62</v>
       </c>
       <c r="C10">
-        <v>17.73</v>
+        <v>0.09</v>
       </c>
       <c r="D10">
-        <v>13.3</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="E10">
-        <v>3.62</v>
+        <v>6.31</v>
       </c>
       <c r="F10">
-        <v>1.79</v>
+        <v>14.41</v>
       </c>
       <c r="G10">
-        <v>10.54</v>
+        <v>10.63</v>
       </c>
       <c r="H10">
-        <v>18.24</v>
+        <v>1.41</v>
       </c>
       <c r="I10">
-        <v>10.39</v>
+        <v>0.14</v>
       </c>
       <c r="J10">
-        <v>1.58</v>
+        <v>1.1</v>
       </c>
       <c r="K10">
-        <v>1.13</v>
+        <v>10.03</v>
       </c>
       <c r="L10">
+        <v>25.98</v>
+      </c>
+      <c r="M10">
+        <v>19.69</v>
+      </c>
+      <c r="N10">
         <v>4.51</v>
       </c>
-      <c r="M10">
-        <v>5.67</v>
-      </c>
-      <c r="N10">
-        <v>2.76</v>
-      </c>
       <c r="O10">
-        <v>1.82</v>
+        <v>0.23</v>
       </c>
       <c r="P10">
-        <v>82.53</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>5.64</v>
+        <v>4.12</v>
       </c>
       <c r="C11">
-        <v>3.7</v>
+        <v>15.83</v>
       </c>
       <c r="D11">
-        <v>10.39</v>
+        <v>16.02</v>
       </c>
       <c r="E11">
-        <v>10.21</v>
+        <v>4.46</v>
       </c>
       <c r="F11">
-        <v>3.73</v>
+        <v>0.29</v>
       </c>
       <c r="G11">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.13</v>
+        <v>0.63</v>
       </c>
       <c r="I11">
-        <v>11.43</v>
+        <v>7.3</v>
       </c>
       <c r="J11">
-        <v>18.61</v>
+        <v>20.17</v>
       </c>
       <c r="K11">
-        <v>9.16</v>
+        <v>15.41</v>
       </c>
       <c r="L11">
-        <v>1.69</v>
+        <v>2.41</v>
       </c>
       <c r="M11">
-        <v>2.64</v>
+        <v>0.06</v>
       </c>
       <c r="N11">
-        <v>10.4</v>
+        <v>1.33</v>
       </c>
       <c r="O11">
-        <v>9.779999999999999</v>
+        <v>11.97</v>
       </c>
       <c r="P11">
-        <v>47.72</v>
+        <v>48.65</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>4.36</v>
+        <v>2.66</v>
       </c>
       <c r="C12">
-        <v>4.19</v>
+        <v>0.08</v>
       </c>
       <c r="D12">
-        <v>9.379999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="E12">
-        <v>7.62</v>
+        <v>7.35</v>
       </c>
       <c r="F12">
-        <v>1.91</v>
+        <v>12.48</v>
       </c>
       <c r="G12">
-        <v>0.47</v>
+        <v>5.510000000000001</v>
       </c>
       <c r="H12">
-        <v>5.16</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I12">
-        <v>17.42</v>
+        <v>0.26</v>
       </c>
       <c r="J12">
-        <v>16.24</v>
+        <v>5.74</v>
       </c>
       <c r="K12">
-        <v>4.97</v>
+        <v>25.36</v>
       </c>
       <c r="L12">
-        <v>1.12</v>
+        <v>27.78</v>
       </c>
       <c r="M12">
-        <v>5.08</v>
+        <v>9.91</v>
       </c>
       <c r="N12">
-        <v>13.13</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="O12">
-        <v>8.949999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="P12">
-        <v>50.51</v>
+        <v>30.21</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>3.9</v>
+        <v>1.53</v>
       </c>
       <c r="C13">
-        <v>17.25</v>
+        <v>12.68</v>
       </c>
       <c r="D13">
-        <v>20.98</v>
+        <v>21.14</v>
       </c>
       <c r="E13">
-        <v>8.970000000000001</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>2.36</v>
+        <v>1.34</v>
       </c>
       <c r="G13">
-        <v>5.36</v>
+        <v>0.01</v>
       </c>
       <c r="H13">
-        <v>15.24</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="I13">
-        <v>12.86</v>
+        <v>2.9</v>
       </c>
       <c r="J13">
-        <v>3.330000000000001</v>
+        <v>14.62</v>
       </c>
       <c r="K13">
-        <v>0.77</v>
+        <v>18.03</v>
       </c>
       <c r="L13">
-        <v>2.54</v>
+        <v>7.19</v>
       </c>
       <c r="M13">
-        <v>3.72</v>
+        <v>0.62</v>
       </c>
       <c r="N13">
-        <v>1.77</v>
+        <v>0.14</v>
       </c>
       <c r="O13">
-        <v>0.95</v>
+        <v>9.73</v>
       </c>
       <c r="P13">
-        <v>86.91999999999999</v>
+        <v>49.67</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>2.44</v>
+        <v>0.58</v>
       </c>
       <c r="C14">
-        <v>3.42</v>
+        <v>7.969999999999999</v>
       </c>
       <c r="D14">
-        <v>6.19</v>
+        <v>25.94</v>
       </c>
       <c r="E14">
-        <v>3.84</v>
+        <v>26.46</v>
       </c>
       <c r="F14">
-        <v>1.08</v>
+        <v>7.249999999999999</v>
       </c>
       <c r="G14">
-        <v>1.48</v>
+        <v>0.43</v>
       </c>
       <c r="H14">
-        <v>10.39</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>18.33</v>
+        <v>0.95</v>
       </c>
       <c r="J14">
-        <v>10.5</v>
+        <v>6.79</v>
       </c>
       <c r="K14">
-        <v>1.94</v>
+        <v>12.54</v>
       </c>
       <c r="L14">
-        <v>2.15</v>
+        <v>6.97</v>
       </c>
       <c r="M14">
-        <v>11.73</v>
+        <v>1.1</v>
       </c>
       <c r="N14">
-        <v>18.66</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="O14">
-        <v>7.85</v>
+        <v>2.95</v>
       </c>
       <c r="P14">
-        <v>47.16999999999999</v>
+        <v>69.58</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="C15">
-        <v>0.64</v>
+        <v>1.68</v>
       </c>
       <c r="D15">
-        <v>1.09</v>
+        <v>14.75</v>
       </c>
       <c r="E15">
-        <v>0.61</v>
+        <v>36.91999999999999</v>
       </c>
       <c r="F15">
-        <v>0.28</v>
+        <v>30.1</v>
       </c>
       <c r="G15">
-        <v>2.07</v>
+        <v>6.64</v>
       </c>
       <c r="H15">
-        <v>7.82</v>
+        <v>0.31</v>
       </c>
       <c r="I15">
-        <v>10.17</v>
+        <v>0.12</v>
       </c>
       <c r="J15">
-        <v>4.01</v>
+        <v>1.78</v>
       </c>
       <c r="K15">
-        <v>1.72</v>
+        <v>4.16</v>
       </c>
       <c r="L15">
-        <v>11.84</v>
+        <v>2.67</v>
       </c>
       <c r="M15">
-        <v>29.34</v>
+        <v>0.52</v>
       </c>
       <c r="N15">
-        <v>24.24</v>
+        <v>0.03</v>
       </c>
       <c r="O15">
-        <v>5.98</v>
+        <v>0.26</v>
       </c>
       <c r="P15">
-        <v>22.87</v>
+        <v>90.57999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2606,16 +2579,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2623,16 +2596,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2640,16 +2613,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2657,16 +2630,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2674,16 +2647,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2691,16 +2664,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2708,16 +2681,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2725,16 +2698,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2742,16 +2715,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2759,16 +2732,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2776,16 +2749,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2793,16 +2766,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>-9</v>
+        <v>-21</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2810,16 +2783,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>-11</v>
+        <v>-24</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2827,16 +2800,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>-26</v>
+        <v>-33</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2844,16 +2817,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-66</v>
+        <v>-49</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2863,757 +2836,667 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>31</v>
+      </c>
+      <c r="I2">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>39</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="M2">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>18</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>-4</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>13</v>
-      </c>
-      <c r="J2">
-        <v>19</v>
-      </c>
-      <c r="K2">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>21</v>
-      </c>
-      <c r="M2">
-        <v>24</v>
-      </c>
-      <c r="N2">
-        <v>26</v>
-      </c>
-      <c r="O2">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="1" t="s">
+      <c r="D4">
         <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>-2</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
-      <c r="J3">
-        <v>13</v>
-      </c>
-      <c r="K3">
-        <v>11</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>13</v>
-      </c>
-      <c r="O3">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
       </c>
       <c r="E4">
         <v>13</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>22</v>
+      </c>
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>6</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>21</v>
-      </c>
-      <c r="N4">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>17</v>
-      </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
-      <c r="N5">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>14</v>
-      </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="B6">
-        <v>4</v>
+        <v>-9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>-13</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="F6">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>-4</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M6">
         <v>13</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="O6">
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>22</v>
+      </c>
+      <c r="L7">
+        <v>13</v>
+      </c>
+      <c r="M7">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>-8</v>
+      </c>
+      <c r="C8">
+        <v>-8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="P6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>-6</v>
+      </c>
+      <c r="G9">
+        <v>-5</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="I9">
         <v>6</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>21</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7">
-        <v>21</v>
-      </c>
-      <c r="J7">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>19</v>
-      </c>
-      <c r="L7">
-        <v>11</v>
-      </c>
-      <c r="M7">
-        <v>11</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>9</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>-3</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>9</v>
-      </c>
-      <c r="P8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>-10</v>
-      </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9">
-        <v>-4</v>
-      </c>
-      <c r="E9">
-        <v>-4</v>
-      </c>
-      <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9">
-        <v>-3</v>
-      </c>
-      <c r="H9">
-        <v>-7</v>
-      </c>
-      <c r="I9">
-        <v>-8</v>
       </c>
       <c r="J9">
         <v>-3</v>
       </c>
       <c r="K9">
+        <v>-7</v>
+      </c>
+      <c r="L9">
         <v>-10</v>
       </c>
-      <c r="L9">
+      <c r="M9">
+        <v>-5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-9</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-15</v>
+      </c>
+      <c r="G10">
+        <v>-15</v>
+      </c>
+      <c r="H10">
+        <v>-21</v>
+      </c>
+      <c r="I10">
+        <v>-19</v>
+      </c>
+      <c r="J10">
+        <v>-14</v>
+      </c>
+      <c r="K10">
+        <v>-20</v>
+      </c>
+      <c r="L10">
+        <v>-21</v>
+      </c>
+      <c r="M10">
+        <v>-13</v>
+      </c>
+      <c r="N10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>-8</v>
       </c>
-      <c r="M9">
+      <c r="C11">
         <v>-3</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+      <c r="F11">
+        <v>-2</v>
+      </c>
+      <c r="G11">
+        <v>-8</v>
+      </c>
+      <c r="H11">
+        <v>-9</v>
+      </c>
+      <c r="I11">
+        <v>-12</v>
+      </c>
+      <c r="J11">
+        <v>-13</v>
+      </c>
+      <c r="K11">
+        <v>-15</v>
+      </c>
+      <c r="L11">
+        <v>-9</v>
+      </c>
+      <c r="M11">
+        <v>-15</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>-2</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>-4</v>
+      </c>
+      <c r="E12">
+        <v>-7</v>
+      </c>
+      <c r="F12">
+        <v>-12</v>
+      </c>
+      <c r="G12">
+        <v>-20</v>
+      </c>
+      <c r="H12">
+        <v>-29</v>
+      </c>
+      <c r="I12">
+        <v>-30</v>
+      </c>
+      <c r="J12">
+        <v>-30</v>
+      </c>
+      <c r="K12">
+        <v>-21</v>
+      </c>
+      <c r="L12">
+        <v>-19</v>
+      </c>
+      <c r="M12">
+        <v>-21</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
         <v>-3</v>
       </c>
-      <c r="D10">
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13">
+        <v>-8</v>
+      </c>
+      <c r="G13">
+        <v>-9</v>
+      </c>
+      <c r="H13">
+        <v>-12</v>
+      </c>
+      <c r="I13">
+        <v>-19</v>
+      </c>
+      <c r="J13">
+        <v>-21</v>
+      </c>
+      <c r="K13">
+        <v>-23</v>
+      </c>
+      <c r="L13">
+        <v>-22</v>
+      </c>
+      <c r="M13">
+        <v>-24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>-3</v>
+      </c>
+      <c r="C14">
+        <v>-5</v>
+      </c>
+      <c r="D14">
+        <v>-10</v>
+      </c>
+      <c r="E14">
+        <v>-20</v>
+      </c>
+      <c r="F14">
+        <v>-15</v>
+      </c>
+      <c r="G14">
+        <v>-19</v>
+      </c>
+      <c r="H14">
+        <v>-27</v>
+      </c>
+      <c r="I14">
+        <v>-27</v>
+      </c>
+      <c r="J14">
+        <v>-33</v>
+      </c>
+      <c r="K14">
+        <v>-35</v>
+      </c>
+      <c r="L14">
+        <v>-30</v>
+      </c>
+      <c r="M14">
+        <v>-33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>-2</v>
+      </c>
+      <c r="D15">
+        <v>-5</v>
+      </c>
+      <c r="E15">
+        <v>-7</v>
+      </c>
+      <c r="F15">
         <v>-6</v>
       </c>
-      <c r="E10">
-        <v>-8</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-8</v>
-      </c>
-      <c r="H10">
-        <v>-2</v>
-      </c>
-      <c r="I10">
-        <v>5</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>-1</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="G15">
+        <v>-6</v>
+      </c>
+      <c r="H15">
+        <v>-14</v>
+      </c>
+      <c r="I15">
+        <v>-22</v>
+      </c>
+      <c r="J15">
+        <v>-32</v>
+      </c>
+      <c r="K15">
+        <v>-34</v>
+      </c>
+      <c r="L15">
+        <v>-45</v>
+      </c>
+      <c r="M15">
+        <v>-49</v>
+      </c>
+      <c r="N15" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <v>-10</v>
-      </c>
-      <c r="D11">
-        <v>-9</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
-      </c>
-      <c r="F11">
-        <v>-3</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <v>-3</v>
-      </c>
-      <c r="L11">
-        <v>6</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>-4</v>
-      </c>
-      <c r="O11">
-        <v>-3</v>
-      </c>
-      <c r="P11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>-9</v>
-      </c>
-      <c r="C12">
-        <v>-14</v>
-      </c>
-      <c r="D12">
-        <v>-6</v>
-      </c>
-      <c r="E12">
-        <v>-9</v>
-      </c>
-      <c r="F12">
-        <v>-10</v>
-      </c>
-      <c r="G12">
-        <v>-9</v>
-      </c>
-      <c r="H12">
-        <v>-9</v>
-      </c>
-      <c r="I12">
-        <v>-12</v>
-      </c>
-      <c r="J12">
-        <v>-13</v>
-      </c>
-      <c r="K12">
-        <v>-10</v>
-      </c>
-      <c r="L12">
-        <v>-7</v>
-      </c>
-      <c r="M12">
-        <v>-5</v>
-      </c>
-      <c r="N12">
-        <v>-3</v>
-      </c>
-      <c r="O12">
-        <v>-9</v>
-      </c>
-      <c r="P12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>-4</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>-2</v>
-      </c>
-      <c r="I13">
-        <v>-8</v>
-      </c>
-      <c r="J13">
-        <v>-5</v>
-      </c>
-      <c r="K13">
-        <v>-4</v>
-      </c>
-      <c r="L13">
-        <v>-2</v>
-      </c>
-      <c r="M13">
-        <v>-3</v>
-      </c>
-      <c r="N13">
-        <v>-2</v>
-      </c>
-      <c r="O13">
-        <v>-11</v>
-      </c>
-      <c r="P13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>-9</v>
-      </c>
-      <c r="C14">
-        <v>-3</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>-2</v>
-      </c>
-      <c r="F14">
-        <v>-4</v>
-      </c>
-      <c r="G14">
-        <v>-6</v>
-      </c>
-      <c r="H14">
-        <v>-10</v>
-      </c>
-      <c r="I14">
-        <v>-13</v>
-      </c>
-      <c r="J14">
-        <v>-10</v>
-      </c>
-      <c r="K14">
-        <v>-10</v>
-      </c>
-      <c r="L14">
-        <v>-16</v>
-      </c>
-      <c r="M14">
-        <v>-23</v>
-      </c>
-      <c r="N14">
-        <v>-23</v>
-      </c>
-      <c r="O14">
-        <v>-26</v>
-      </c>
-      <c r="P14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>-3</v>
-      </c>
-      <c r="D15">
-        <v>-8</v>
-      </c>
-      <c r="E15">
-        <v>-15</v>
-      </c>
-      <c r="F15">
-        <v>-16</v>
-      </c>
-      <c r="G15">
-        <v>-23</v>
-      </c>
-      <c r="H15">
-        <v>-29</v>
-      </c>
-      <c r="I15">
-        <v>-33</v>
-      </c>
-      <c r="J15">
-        <v>-38</v>
-      </c>
-      <c r="K15">
-        <v>-46</v>
-      </c>
-      <c r="L15">
-        <v>-56</v>
-      </c>
-      <c r="M15">
-        <v>-58</v>
-      </c>
-      <c r="N15">
-        <v>-58</v>
-      </c>
-      <c r="O15">
-        <v>-66</v>
-      </c>
-      <c r="P15" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3623,7 +3506,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3631,25 +3514,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3657,25 +3540,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="F2">
-        <v>-66</v>
+        <v>33</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3683,25 +3566,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>-24</v>
       </c>
       <c r="F3">
-        <v>-38</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3709,25 +3592,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>-15</v>
       </c>
       <c r="F4">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3735,25 +3618,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-16</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>-14</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3761,25 +3644,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="F6">
-        <v>17</v>
+        <v>-49</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3787,25 +3670,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
         <v>-33</v>
       </c>
-      <c r="F7">
-        <v>-8</v>
-      </c>
       <c r="G7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3813,25 +3696,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>-20</v>
       </c>
       <c r="F8">
-        <v>-23</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3839,25 +3722,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>-12</v>
       </c>
       <c r="F9">
-        <v>-10</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3868,74 +3751,22 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>-9</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
         <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>20</v>
-      </c>
-      <c r="G12">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/THE BEST OF THE BEST 2024.xlsx
+++ b/THE BEST OF THE BEST 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="80">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -64,37 +64,40 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>12-0-0</t>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
+  </si>
+  <si>
+    <t>13-0-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,34 +169,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑11</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓5</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓4</t>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -230,6 +236,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -669,28 +678,28 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -699,10 +708,10 @@
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -713,19 +722,19 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -737,16 +746,16 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>15</v>
@@ -760,43 +769,43 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>17</v>
       </c>
       <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
       </c>
       <c r="M4" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -813,13 +822,13 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -828,22 +837,22 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" t="s">
         <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -860,25 +869,25 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -887,10 +896,10 @@
         <v>16</v>
       </c>
       <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
         <v>18</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -898,19 +907,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -922,22 +931,22 @@
         <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
       </c>
       <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
-      </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -966,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -995,43 +1004,43 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
         <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1039,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1048,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1057,16 +1066,16 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1075,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
         <v>20</v>
@@ -1086,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -1095,19 +1104,19 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1116,7 +1125,7 @@
         <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
         <v>22</v>
@@ -1125,7 +1134,7 @@
         <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1148,13 +1157,13 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
         <v>20</v>
@@ -1163,7 +1172,7 @@
         <v>16</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>22</v>
@@ -1172,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1180,34 +1189,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
@@ -1219,7 +1228,7 @@
         <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1233,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1245,10 +1254,10 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
@@ -1257,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
@@ -1331,13 +1340,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1348,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>5.071428571428571</v>
+        <v>5.285714285714286</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1359,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5.142857142857143</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1373,13 +1382,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5.214285714285714</v>
+        <v>5.642857142857143</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1387,13 +1396,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>5.428571428571429</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1401,13 +1410,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>5.642857142857143</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1415,13 +1424,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.642857142857143</v>
+        <v>6.214285714285714</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1432,10 +1441,10 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>5.785714285714286</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1443,10 +1452,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1457,13 +1466,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>6.571428571428571</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1471,13 +1480,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>6.642857142857143</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1485,13 +1494,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>6.5</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1502,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>6.785714285714286</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1513,13 +1522,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>6.928571428571429</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1530,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>7.857142857142857</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1551,16 +1560,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1571,10 +1580,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>10.21428571428571</v>
+        <v>11.14285714285714</v>
       </c>
       <c r="D2">
-        <v>-0.7857142857142865</v>
+        <v>-0.8571428571428577</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1588,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8.714285714285714</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="D3">
         <v>0.7142857142857135</v>
@@ -1605,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.142857142857143</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D4">
-        <v>-2.857142857142857</v>
+        <v>-2.285714285714286</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1619,16 +1628,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>7.142857142857143</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D5">
-        <v>1.142857142857143</v>
+        <v>-0.6428571428571432</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1639,10 +1648,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>7.071428571428571</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D6">
-        <v>0.07142857142857117</v>
+        <v>0.3571428571428568</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -1653,16 +1662,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6.785714285714286</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="D7">
-        <v>-0.2142857142857144</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1673,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>6.357142857142857</v>
+        <v>7.214285714285714</v>
       </c>
       <c r="D8">
-        <v>1.357142857142857</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1690,10 +1699,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>5.714285714285714</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="D9">
-        <v>-0.2857142857142856</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -1707,13 +1716,13 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>5.285714285714286</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="D10">
-        <v>0.2857142857142856</v>
+        <v>-0.4285714285714288</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1724,10 +1733,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.714285714285714</v>
+        <v>5.071428571428571</v>
       </c>
       <c r="D11">
-        <v>1.714285714285714</v>
+        <v>2.071428571428571</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
@@ -1738,16 +1747,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1755,16 +1764,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>3.857142857142857</v>
+        <v>4.5</v>
       </c>
       <c r="D13">
-        <v>0.8571428571428572</v>
+        <v>-0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1772,16 +1781,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>3.785714285714286</v>
+        <v>3.928571428571428</v>
       </c>
       <c r="D14">
-        <v>-2.214285714285714</v>
+        <v>0.9285714285714284</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1789,13 +1798,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>3.214285714285714</v>
+        <v>3.857142857142857</v>
       </c>
       <c r="D15">
-        <v>0.2142857142857144</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1816,602 +1825,602 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>17.94</v>
+        <v>19.35</v>
       </c>
       <c r="C2">
-        <v>8.75</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="D2">
-        <v>0.8099999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="E2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.460000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>24.83</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.22</v>
+        <v>2.11</v>
       </c>
       <c r="J2">
-        <v>2.28</v>
+        <v>26.52</v>
       </c>
       <c r="K2">
-        <v>0.02</v>
+        <v>46.2</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.879999999999999</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.91</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>75.23999999999999</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>13.67</v>
+        <v>18.15</v>
       </c>
       <c r="C3">
-        <v>12.31</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>15.33</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>25.49</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="J3">
-        <v>7.57</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7.17</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.12</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>70.93000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>12.93</v>
+        <v>16.3</v>
       </c>
       <c r="C4">
-        <v>1.67</v>
+        <v>2.32</v>
       </c>
       <c r="D4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>22.43</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2.38</v>
+        <v>15.83</v>
       </c>
       <c r="J4">
-        <v>0.05</v>
+        <v>65.55</v>
       </c>
       <c r="K4">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.63</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>18.14</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>61.69</v>
+        <v>34.45</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>12.41</v>
+        <v>15.68</v>
       </c>
       <c r="C5">
-        <v>3.330000000000001</v>
+        <v>17.64</v>
       </c>
       <c r="D5">
-        <v>0.15</v>
+        <v>3.45</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F5">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>16.54</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>22.51</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>6.710000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="J5">
-        <v>0.33</v>
+        <v>0.97</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.32</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>33.58</v>
       </c>
       <c r="M5">
-        <v>5.88</v>
+        <v>15.26</v>
       </c>
       <c r="N5">
-        <v>17.41</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.51</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>63.37</v>
+        <v>36.87</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>11.19</v>
+        <v>15.26</v>
       </c>
       <c r="C6">
-        <v>17.27</v>
+        <v>9.91</v>
       </c>
       <c r="D6">
-        <v>6.08</v>
+        <v>0.86</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>6.27</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>22.13</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
-        <v>17.67</v>
+        <v>6.859999999999999</v>
       </c>
       <c r="K6">
-        <v>2.37</v>
+        <v>35.96</v>
       </c>
       <c r="L6">
-        <v>0.03</v>
+        <v>30.94</v>
       </c>
       <c r="M6">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.84</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>63.86</v>
+        <v>26.24</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>7.32</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C7">
-        <v>17.83</v>
+        <v>21.11</v>
       </c>
       <c r="D7">
-        <v>10.39</v>
+        <v>8.16</v>
       </c>
       <c r="E7">
-        <v>1.68</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0.1</v>
       </c>
-      <c r="H7">
-        <v>2.37</v>
-      </c>
-      <c r="I7">
-        <v>14.57</v>
-      </c>
-      <c r="J7">
-        <v>21.66</v>
-      </c>
       <c r="K7">
-        <v>8.08</v>
+        <v>3.57</v>
       </c>
       <c r="L7">
-        <v>0.49</v>
+        <v>22.8</v>
       </c>
       <c r="M7">
-        <v>0.12</v>
+        <v>28.15</v>
       </c>
       <c r="N7">
-        <v>2.83</v>
+        <v>5.79</v>
       </c>
       <c r="O7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>54.32</v>
+        <v>39.59</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>5.72</v>
+        <v>4.55</v>
       </c>
       <c r="C8">
-        <v>0.39</v>
+        <v>23.25</v>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>19.07</v>
       </c>
       <c r="E8">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="F8">
-        <v>11.83</v>
+        <v>0.15</v>
       </c>
       <c r="G8">
-        <v>16.24</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>7.01</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.59</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>7.180000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="M8">
-        <v>22.61</v>
+        <v>24.84</v>
       </c>
       <c r="N8">
-        <v>21.11</v>
+        <v>14.37</v>
       </c>
       <c r="O8">
-        <v>4.73</v>
+        <v>1.24</v>
       </c>
       <c r="P8">
-        <v>43.78</v>
+        <v>50.07</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>5.25</v>
+        <v>1.24</v>
       </c>
       <c r="C9">
-        <v>0.12</v>
+        <v>14.74</v>
       </c>
       <c r="D9">
-        <v>0.25</v>
+        <v>27.04</v>
       </c>
       <c r="E9">
-        <v>4.04</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="F9">
-        <v>13.11</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G9">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0.15</v>
       </c>
       <c r="L9">
-        <v>17.2</v>
+        <v>3.03</v>
       </c>
       <c r="M9">
-        <v>26.13</v>
+        <v>17.96</v>
       </c>
       <c r="N9">
-        <v>12.43</v>
+        <v>21.05</v>
       </c>
       <c r="O9">
-        <v>1.34</v>
+        <v>4.18</v>
       </c>
       <c r="P9">
-        <v>39.66</v>
+        <v>53.63</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>4.62</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09</v>
+        <v>5.42</v>
       </c>
       <c r="D10">
+        <v>26.9</v>
+      </c>
+      <c r="E10">
+        <v>22.81</v>
+      </c>
+      <c r="F10">
+        <v>4.08</v>
+      </c>
+      <c r="G10">
+        <v>0.12</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
         <v>0.8500000000000001</v>
       </c>
-      <c r="E10">
-        <v>6.31</v>
-      </c>
-      <c r="F10">
-        <v>14.41</v>
-      </c>
-      <c r="G10">
-        <v>10.63</v>
-      </c>
-      <c r="H10">
-        <v>1.41</v>
-      </c>
-      <c r="I10">
-        <v>0.14</v>
-      </c>
-      <c r="J10">
-        <v>1.1</v>
-      </c>
-      <c r="K10">
-        <v>10.03</v>
-      </c>
-      <c r="L10">
-        <v>25.98</v>
-      </c>
       <c r="M10">
-        <v>19.69</v>
+        <v>8.74</v>
       </c>
       <c r="N10">
-        <v>4.51</v>
+        <v>22.19</v>
       </c>
       <c r="O10">
-        <v>0.23</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="P10">
-        <v>38.46</v>
+        <v>59.33000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>4.12</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>15.83</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>16.02</v>
+        <v>14.31</v>
       </c>
       <c r="E11">
-        <v>4.46</v>
+        <v>33.93</v>
       </c>
       <c r="F11">
-        <v>0.29</v>
+        <v>12.96</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="H11">
-        <v>0.63</v>
+        <v>0.01</v>
       </c>
       <c r="I11">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>20.17</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>15.41</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>2.41</v>
+        <v>0.11</v>
       </c>
       <c r="M11">
-        <v>0.06</v>
+        <v>4.07</v>
       </c>
       <c r="N11">
-        <v>1.33</v>
+        <v>18.59</v>
       </c>
       <c r="O11">
-        <v>11.97</v>
+        <v>15.16</v>
       </c>
       <c r="P11">
-        <v>48.65</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>7.35</v>
+        <v>29.47</v>
       </c>
       <c r="F12">
-        <v>12.48</v>
+        <v>30.65</v>
       </c>
       <c r="G12">
-        <v>5.510000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="H12">
-        <v>0.7000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I12">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.36</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>27.78</v>
+        <v>0.01</v>
       </c>
       <c r="M12">
-        <v>9.91</v>
+        <v>0.91</v>
       </c>
       <c r="N12">
-        <v>0.9900000000000001</v>
+        <v>13.49</v>
       </c>
       <c r="O12">
-        <v>0.01</v>
+        <v>21.87</v>
       </c>
       <c r="P12">
-        <v>30.21</v>
+        <v>63.72</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2419,49 +2428,49 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>12.68</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>21.14</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.34</v>
+        <v>51.34</v>
       </c>
       <c r="G13">
-        <v>0.01</v>
+        <v>14.68</v>
       </c>
       <c r="H13">
+        <v>0.23</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>0.06999999999999999</v>
       </c>
-      <c r="I13">
-        <v>2.9</v>
-      </c>
-      <c r="J13">
-        <v>14.62</v>
-      </c>
-      <c r="K13">
-        <v>18.03</v>
-      </c>
-      <c r="L13">
-        <v>7.19</v>
-      </c>
-      <c r="M13">
-        <v>0.62</v>
-      </c>
       <c r="N13">
-        <v>0.14</v>
+        <v>4.22</v>
       </c>
       <c r="O13">
-        <v>9.73</v>
+        <v>29.46</v>
       </c>
       <c r="P13">
-        <v>49.67</v>
+        <v>66.25</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2469,49 +2478,49 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>7.969999999999999</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>25.94</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>26.46</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>7.249999999999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.43</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="I14">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>6.79</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>12.54</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.97</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.06999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="O14">
-        <v>2.95</v>
+        <v>15.07</v>
       </c>
       <c r="P14">
-        <v>69.58</v>
+        <v>84.63000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2519,49 +2528,49 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>14.75</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>36.91999999999999</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>30.1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>6.64</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.31</v>
+        <v>95.87</v>
       </c>
       <c r="I15">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>4.16</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.26</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="P15">
-        <v>90.57999999999998</v>
+        <v>95.87</v>
       </c>
     </row>
   </sheetData>
@@ -2579,16 +2588,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2599,13 +2608,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2616,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2630,16 +2639,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2647,16 +2656,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2664,16 +2673,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2681,16 +2690,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2701,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2718,13 +2727,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2735,13 +2744,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2752,13 +2761,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2766,16 +2775,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2783,16 +2792,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2800,16 +2809,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>-33</v>
+        <v>-31</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2820,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2836,54 +2845,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>72</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2923,11 +2935,14 @@
       <c r="M2">
         <v>62</v>
       </c>
-      <c r="N2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2967,187 +2982,202 @@
       <c r="M3">
         <v>39</v>
       </c>
-      <c r="N3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <v>17</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
       <c r="E5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
         <v>17</v>
       </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
       <c r="H5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5">
         <v>17</v>
       </c>
       <c r="J5">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>23</v>
+      </c>
+      <c r="M5">
         <v>18</v>
       </c>
-      <c r="K5">
+      <c r="N5">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="J6">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>-9</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-13</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-13</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-6</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-4</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-1</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>9</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>15</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>15</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>15</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>13</v>
       </c>
-      <c r="N6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>13</v>
-      </c>
-      <c r="M7">
-        <v>12</v>
-      </c>
-      <c r="N7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3187,11 +3217,14 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3231,11 +3264,14 @@
       <c r="M9">
         <v>-5</v>
       </c>
-      <c r="N9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9">
+        <v>-7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -3275,11 +3311,14 @@
       <c r="M10">
         <v>-13</v>
       </c>
-      <c r="N10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-16</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3319,143 +3358,155 @@
       <c r="M11">
         <v>-15</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11">
+        <v>-22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>-3</v>
+      </c>
+      <c r="E12">
+        <v>-5</v>
+      </c>
+      <c r="F12">
+        <v>-8</v>
+      </c>
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="H12">
+        <v>-12</v>
+      </c>
+      <c r="I12">
+        <v>-19</v>
+      </c>
+      <c r="J12">
+        <v>-21</v>
+      </c>
+      <c r="K12">
+        <v>-23</v>
+      </c>
+      <c r="L12">
+        <v>-22</v>
+      </c>
+      <c r="M12">
+        <v>-24</v>
+      </c>
+      <c r="N12">
+        <v>-26</v>
+      </c>
+      <c r="O12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>-3</v>
+      </c>
+      <c r="C13">
+        <v>-5</v>
+      </c>
+      <c r="D13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>-20</v>
+      </c>
+      <c r="F13">
+        <v>-15</v>
+      </c>
+      <c r="G13">
+        <v>-19</v>
+      </c>
+      <c r="H13">
+        <v>-27</v>
+      </c>
+      <c r="I13">
+        <v>-27</v>
+      </c>
+      <c r="J13">
+        <v>-33</v>
+      </c>
+      <c r="K13">
+        <v>-35</v>
+      </c>
+      <c r="L13">
+        <v>-30</v>
+      </c>
+      <c r="M13">
+        <v>-33</v>
+      </c>
+      <c r="N13">
+        <v>-27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B14">
         <v>-2</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>-1</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>-4</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>-7</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <v>-12</v>
       </c>
-      <c r="G12">
+      <c r="G14">
         <v>-20</v>
       </c>
-      <c r="H12">
+      <c r="H14">
         <v>-29</v>
       </c>
-      <c r="I12">
+      <c r="I14">
         <v>-30</v>
       </c>
-      <c r="J12">
+      <c r="J14">
         <v>-30</v>
       </c>
-      <c r="K12">
+      <c r="K14">
         <v>-21</v>
       </c>
-      <c r="L12">
+      <c r="L14">
         <v>-19</v>
       </c>
-      <c r="M12">
+      <c r="M14">
         <v>-21</v>
       </c>
-      <c r="N12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>-3</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13">
-        <v>-8</v>
-      </c>
-      <c r="G13">
-        <v>-9</v>
-      </c>
-      <c r="H13">
-        <v>-12</v>
-      </c>
-      <c r="I13">
-        <v>-19</v>
-      </c>
-      <c r="J13">
-        <v>-21</v>
-      </c>
-      <c r="K13">
-        <v>-23</v>
-      </c>
-      <c r="L13">
-        <v>-22</v>
-      </c>
-      <c r="M13">
-        <v>-24</v>
-      </c>
-      <c r="N13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>-3</v>
-      </c>
-      <c r="C14">
-        <v>-5</v>
-      </c>
-      <c r="D14">
-        <v>-10</v>
-      </c>
-      <c r="E14">
-        <v>-20</v>
-      </c>
-      <c r="F14">
-        <v>-15</v>
-      </c>
-      <c r="G14">
-        <v>-19</v>
-      </c>
-      <c r="H14">
-        <v>-27</v>
-      </c>
-      <c r="I14">
-        <v>-27</v>
-      </c>
-      <c r="J14">
-        <v>-33</v>
-      </c>
-      <c r="K14">
-        <v>-35</v>
-      </c>
-      <c r="L14">
-        <v>-30</v>
-      </c>
-      <c r="M14">
-        <v>-33</v>
-      </c>
-      <c r="N14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14">
+        <v>-31</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3495,8 +3546,11 @@
       <c r="M15">
         <v>-49</v>
       </c>
-      <c r="N15" t="s">
-        <v>57</v>
+      <c r="N15">
+        <v>-51</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3560,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3514,25 +3568,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3644,25 +3698,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6">
-        <v>-15</v>
+        <v>-26</v>
       </c>
       <c r="F6">
-        <v>-49</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3670,25 +3724,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-16</v>
       </c>
       <c r="F7">
-        <v>-33</v>
+        <v>-51</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3696,25 +3750,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>-49</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3722,25 +3776,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>-33</v>
       </c>
       <c r="G9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3748,25 +3802,51 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>-12</v>
+      </c>
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="G10">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
+      <c r="G11">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/THE BEST OF THE BEST 2024.xlsx
+++ b/THE BEST OF THE BEST 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="80">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -64,40 +64,37 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
-  </si>
-  <si>
-    <t>13-0-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -169,37 +166,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↑1</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑11</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -675,43 +675,43 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -722,43 +722,43 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -769,16 +769,16 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -790,22 +790,22 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -813,46 +813,46 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
         <v>16</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -860,46 +860,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -910,43 +910,43 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
       <c r="J7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" t="s">
         <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
       </c>
       <c r="L7" t="s">
         <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -957,43 +957,43 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1001,46 +1001,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1048,46 +1048,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1095,46 +1095,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1142,46 +1142,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1189,46 +1189,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1236,16 +1236,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1260,22 +1260,22 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1283,46 +1283,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1340,13 +1340,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1354,13 +1354,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5.285714285714286</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1368,13 +1368,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>5.571428571428571</v>
+        <v>5.785714285714286</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1382,13 +1382,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>5.642857142857143</v>
+        <v>6.285714285714286</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1396,13 +1396,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>5.714285714285714</v>
+        <v>6.5</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1410,13 +1410,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.142857142857143</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1424,10 +1424,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>6.214285714285714</v>
+        <v>6.714285714285714</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1438,13 +1438,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.357142857142857</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1452,13 +1452,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.428571428571429</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1469,10 +1469,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>6.571428571428571</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1480,13 +1480,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>6.642857142857143</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.142857142857143</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1508,13 +1508,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>7.142857142857143</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1522,13 +1522,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>7.428571428571429</v>
+        <v>7.928571428571429</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1539,10 +1539,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>8.714285714285714</v>
+        <v>8.785714285714286</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1560,16 +1560,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1580,13 +1580,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>11.14285714285714</v>
+        <v>11.92857142857143</v>
       </c>
       <c r="D2">
-        <v>-0.8571428571428577</v>
+        <v>-1.071428571428571</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1597,13 +1597,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>9.714285714285714</v>
+        <v>10.28571428571429</v>
       </c>
       <c r="D3">
-        <v>0.7142857142857135</v>
+        <v>0.2857142857142865</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>7.714285714285714</v>
+        <v>8.214285714285714</v>
       </c>
       <c r="D4">
-        <v>-2.285714285714286</v>
+        <v>-0.7857142857142865</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.357142857142857</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="D5">
-        <v>-0.6428571428571432</v>
+        <v>-1.857142857142858</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7.357142857142857</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>0.3571428571428568</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>7.285714285714286</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="D7">
-        <v>1.285714285714286</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>7.214285714285714</v>
+        <v>7.5</v>
       </c>
       <c r="D8">
-        <v>1.214285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>5.785714285714286</v>
+        <v>5.928571428571429</v>
       </c>
       <c r="D9">
-        <v>-0.2142857142857144</v>
+        <v>-0.07142857142857117</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5.571428571428571</v>
+        <v>5.857142857142857</v>
       </c>
       <c r="D10">
-        <v>-0.4285714285714288</v>
+        <v>-0.1428571428571432</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>5.071428571428571</v>
+        <v>5.5</v>
       </c>
       <c r="D11">
-        <v>2.071428571428571</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1750,13 +1750,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>4.5</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D12">
-        <v>-2.5</v>
+        <v>-1.642857142857143</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>5.357142857142857</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>1.357142857142857</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>3.928571428571428</v>
+        <v>4.214285714285714</v>
       </c>
       <c r="D14">
-        <v>0.9285714285714284</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>3.857142857142857</v>
+        <v>3.928571428571428</v>
       </c>
       <c r="D15">
-        <v>0.8571428571428572</v>
+        <v>0.9285714285714284</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1825,52 +1825,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1878,10 +1878,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>19.35</v>
+        <v>25.26</v>
       </c>
       <c r="C2">
-        <v>5.609999999999999</v>
+        <v>7.16</v>
       </c>
       <c r="D2">
         <v>0.21</v>
@@ -1899,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.11</v>
+        <v>1.15</v>
       </c>
       <c r="J2">
-        <v>26.52</v>
+        <v>22.21</v>
       </c>
       <c r="K2">
-        <v>46.2</v>
+        <v>44.01</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1920,24 +1920,24 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>27.28</v>
+        <v>33.78</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>18.15</v>
+        <v>17.63</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>13.99</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1949,16 +1949,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>81.84999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.83</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>33.48</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>26.38</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>33.31</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1978,10 +1978,10 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>16.3</v>
+        <v>16.35</v>
       </c>
       <c r="C4">
-        <v>2.32</v>
+        <v>1.36</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.83</v>
+        <v>13.02</v>
       </c>
       <c r="J4">
-        <v>65.55</v>
+        <v>69.27</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2020,24 +2020,24 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>34.45</v>
+        <v>30.73</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>15.68</v>
+        <v>14.38</v>
       </c>
       <c r="C5">
-        <v>17.64</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>85.61999999999999</v>
       </c>
       <c r="J5">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>13.32</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>33.58</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>15.26</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2070,28 +2070,28 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>36.87</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>15.26</v>
+        <v>13.31</v>
       </c>
       <c r="C6">
-        <v>9.91</v>
+        <v>17.75</v>
       </c>
       <c r="D6">
-        <v>0.86</v>
+        <v>4.48</v>
       </c>
       <c r="E6">
+        <v>0.33</v>
+      </c>
+      <c r="F6">
         <v>0.01</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -2099,19 +2099,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="J6">
-        <v>6.859999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="K6">
-        <v>35.96</v>
+        <v>16.34</v>
       </c>
       <c r="L6">
-        <v>30.94</v>
+        <v>33.36</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.07</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>26.24</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2128,19 +2128,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>9.470000000000001</v>
+        <v>7.77</v>
       </c>
       <c r="C7">
-        <v>21.11</v>
+        <v>19.54</v>
       </c>
       <c r="D7">
-        <v>8.16</v>
+        <v>8.959999999999999</v>
       </c>
       <c r="E7">
-        <v>0.8500000000000001</v>
+        <v>0.7799999999999999</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2149,28 +2149,28 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="K7">
-        <v>3.57</v>
+        <v>5.029999999999999</v>
       </c>
       <c r="L7">
-        <v>22.8</v>
+        <v>25.13</v>
       </c>
       <c r="M7">
-        <v>28.15</v>
+        <v>27.13</v>
       </c>
       <c r="N7">
-        <v>5.79</v>
+        <v>5.3</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>39.59</v>
+        <v>37.09</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2178,19 +2178,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.55</v>
+        <v>3.93</v>
       </c>
       <c r="C8">
-        <v>23.25</v>
+        <v>18.45</v>
       </c>
       <c r="D8">
-        <v>19.07</v>
+        <v>15.27</v>
       </c>
       <c r="E8">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="F8">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2202,48 +2202,48 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="L8">
-        <v>8.68</v>
+        <v>11.14</v>
       </c>
       <c r="M8">
-        <v>24.84</v>
+        <v>29.4</v>
       </c>
       <c r="N8">
-        <v>14.37</v>
+        <v>16.45</v>
       </c>
       <c r="O8">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="P8">
-        <v>50.07</v>
+        <v>40.61</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="C9">
-        <v>14.74</v>
+        <v>16.23</v>
       </c>
       <c r="D9">
-        <v>27.04</v>
+        <v>27.52</v>
       </c>
       <c r="E9">
-        <v>9.790000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="F9">
-        <v>0.8200000000000001</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2255,45 +2255,45 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="L9">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="M9">
-        <v>17.96</v>
+        <v>16.86</v>
       </c>
       <c r="N9">
-        <v>21.05</v>
+        <v>20.33</v>
       </c>
       <c r="O9">
-        <v>4.18</v>
+        <v>4.15</v>
       </c>
       <c r="P9">
-        <v>53.63</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.42</v>
+        <v>5.52</v>
       </c>
       <c r="D10">
-        <v>26.9</v>
+        <v>26.55</v>
       </c>
       <c r="E10">
-        <v>22.81</v>
+        <v>20.44</v>
       </c>
       <c r="F10">
-        <v>4.08</v>
+        <v>3.15</v>
       </c>
       <c r="G10">
-        <v>0.12</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2305,22 +2305,22 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L10">
-        <v>0.8500000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="M10">
-        <v>8.74</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="N10">
-        <v>22.19</v>
+        <v>23.94</v>
       </c>
       <c r="O10">
-        <v>8.890000000000001</v>
+        <v>10.01</v>
       </c>
       <c r="P10">
-        <v>59.33000000000001</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2334,19 +2334,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.31</v>
+        <v>15.53</v>
       </c>
       <c r="E11">
-        <v>33.93</v>
+        <v>33.44</v>
       </c>
       <c r="F11">
-        <v>12.96</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>0.86</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="H11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2358,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="M11">
-        <v>4.07</v>
+        <v>3.35</v>
       </c>
       <c r="N11">
-        <v>18.59</v>
+        <v>18.97</v>
       </c>
       <c r="O11">
-        <v>15.16</v>
+        <v>17.05</v>
       </c>
       <c r="P11">
-        <v>62.07</v>
+        <v>60.54</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2387,16 +2387,16 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>29.47</v>
+        <v>32.58</v>
       </c>
       <c r="F12">
-        <v>30.65</v>
+        <v>30.96</v>
       </c>
       <c r="G12">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="H12">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2408,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.91</v>
+        <v>0.65</v>
       </c>
       <c r="N12">
-        <v>13.49</v>
+        <v>10.7</v>
       </c>
       <c r="O12">
-        <v>21.87</v>
+        <v>21.45</v>
       </c>
       <c r="P12">
-        <v>63.72</v>
+        <v>67.19999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2440,13 +2440,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.34</v>
+        <v>54.03</v>
       </c>
       <c r="G13">
-        <v>14.68</v>
+        <v>14.34</v>
       </c>
       <c r="H13">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2461,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.06999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="N13">
-        <v>4.22</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="O13">
-        <v>29.46</v>
+        <v>27.32</v>
       </c>
       <c r="P13">
-        <v>66.25</v>
+        <v>68.57000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>80.80000000000001</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="H14">
-        <v>3.83</v>
+        <v>3.14</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2514,13 +2514,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="O14">
-        <v>15.07</v>
+        <v>15.3</v>
       </c>
       <c r="P14">
-        <v>84.63000000000001</v>
+        <v>84.48999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>95.87</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.130000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="P15">
-        <v>95.87</v>
+        <v>96.65000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2588,16 +2588,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2608,13 +2608,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2625,13 +2625,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2642,13 +2642,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2659,13 +2659,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2676,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2690,16 +2690,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2707,16 +2707,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2727,13 +2727,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2741,16 +2741,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2764,10 +2764,10 @@
         <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2775,13 +2775,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -2795,13 +2795,13 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>-27</v>
+        <v>-35</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2812,13 +2812,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>-31</v>
+        <v>-38</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2829,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>-51</v>
+        <v>-41</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2845,57 +2845,60 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2938,11 +2941,14 @@
       <c r="N2">
         <v>70</v>
       </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2985,11 +2991,14 @@
       <c r="N3">
         <v>42</v>
       </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3032,11 +3041,14 @@
       <c r="N4">
         <v>20</v>
       </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -3079,11 +3091,14 @@
       <c r="N5">
         <v>19</v>
       </c>
-      <c r="O5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3126,105 +3141,114 @@
       <c r="N6">
         <v>12</v>
       </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="C7">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="D7">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G7">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>9</v>
       </c>
       <c r="J7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-13</v>
       </c>
       <c r="D8">
+        <v>-13</v>
+      </c>
+      <c r="E8">
+        <v>-6</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <v>-4</v>
+      </c>
+      <c r="H8">
         <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
       </c>
       <c r="I8">
         <v>9</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="K8">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N8">
-        <v>7</v>
-      </c>
-      <c r="O8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3267,58 +3291,64 @@
       <c r="N9">
         <v>-7</v>
       </c>
-      <c r="O9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="O9">
+        <v>-14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>-6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="D10">
+        <v>-3</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
         <v>-9</v>
       </c>
-      <c r="E10">
-        <v>-10</v>
-      </c>
-      <c r="F10">
-        <v>-15</v>
-      </c>
-      <c r="G10">
-        <v>-15</v>
-      </c>
       <c r="H10">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="I10">
         <v>-19</v>
       </c>
       <c r="J10">
-        <v>-14</v>
+        <v>-21</v>
       </c>
       <c r="K10">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="L10">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="M10">
-        <v>-13</v>
+        <v>-24</v>
       </c>
       <c r="N10">
-        <v>-16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>-26</v>
+      </c>
+      <c r="O10">
+        <v>-15</v>
+      </c>
+      <c r="P10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3361,58 +3391,64 @@
       <c r="N11">
         <v>-22</v>
       </c>
-      <c r="O11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>-22</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="E12">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F12">
-        <v>-8</v>
+        <v>-15</v>
       </c>
       <c r="G12">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="H12">
-        <v>-12</v>
+        <v>-21</v>
       </c>
       <c r="I12">
         <v>-19</v>
       </c>
       <c r="J12">
+        <v>-14</v>
+      </c>
+      <c r="K12">
+        <v>-20</v>
+      </c>
+      <c r="L12">
         <v>-21</v>
       </c>
-      <c r="K12">
-        <v>-23</v>
-      </c>
-      <c r="L12">
-        <v>-22</v>
-      </c>
       <c r="M12">
-        <v>-24</v>
+        <v>-13</v>
       </c>
       <c r="N12">
-        <v>-26</v>
-      </c>
-      <c r="O12" t="s">
+        <v>-16</v>
+      </c>
+      <c r="O12">
+        <v>-25</v>
+      </c>
+      <c r="P12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -3455,11 +3491,14 @@
       <c r="N13">
         <v>-27</v>
       </c>
-      <c r="O13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="O13">
+        <v>-35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3502,11 +3541,14 @@
       <c r="N14">
         <v>-31</v>
       </c>
-      <c r="O14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="O14">
+        <v>-38</v>
+      </c>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3549,8 +3591,11 @@
       <c r="N15">
         <v>-51</v>
       </c>
-      <c r="O15" t="s">
-        <v>56</v>
+      <c r="O15">
+        <v>-41</v>
+      </c>
+      <c r="P15" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/THE BEST OF THE BEST 2024.xlsx
+++ b/THE BEST OF THE BEST 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="82">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -64,37 +64,40 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
-  </si>
-  <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>8-6-0</t>
-  </si>
-  <si>
-    <t>6-8-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>7-7-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>14-1-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -166,37 +169,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑9</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑11</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑10</t>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓11</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -239,6 +242,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -675,43 +681,43 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -722,16 +728,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -740,25 +746,25 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
         <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -769,13 +775,13 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -796,16 +802,16 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -816,43 +822,43 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -860,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
@@ -899,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -907,46 +913,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>15</v>
-      </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -963,22 +969,22 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -987,13 +993,13 @@
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1004,40 +1010,40 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
         <v>18</v>
@@ -1048,46 +1054,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" t="s">
-        <v>14</v>
-      </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N10" t="s">
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1095,16 +1101,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -1113,28 +1119,28 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
       <c r="M11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" t="s">
         <v>20</v>
       </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1142,40 +1148,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -1189,34 +1195,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
         <v>24</v>
@@ -1225,10 +1231,10 @@
         <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1236,16 +1242,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -1260,22 +1266,22 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
         <v>18</v>
       </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1283,10 +1289,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -1301,13 +1307,13 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
         <v>23</v>
@@ -1316,7 +1322,7 @@
         <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
         <v>23</v>
@@ -1340,13 +1346,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1357,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.785714285714286</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1368,13 +1374,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5.785714285714286</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1382,13 +1388,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>6.285714285714286</v>
+        <v>6.428571428571429</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1396,13 +1402,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6.5</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1410,13 +1416,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>6.714285714285714</v>
+        <v>6.857142857142857</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1424,13 +1430,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>6.714285714285714</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1438,13 +1444,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>6.857142857142857</v>
+        <v>7.142857142857143</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1452,10 +1458,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1466,13 +1472,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>7.071428571428571</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1480,13 +1486,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>7.357142857142857</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1494,13 +1500,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>7.428571428571429</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1511,7 +1517,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>7.785714285714286</v>
+        <v>8.357142857142858</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1525,10 +1531,10 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>7.928571428571429</v>
+        <v>8.428571428571429</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1539,10 +1545,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>8.785714285714286</v>
+        <v>9.5</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1560,16 +1566,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1580,10 +1586,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>11.92857142857143</v>
+        <v>12.42857142857143</v>
       </c>
       <c r="D2">
-        <v>-1.071428571428571</v>
+        <v>-1.571428571428571</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1597,13 +1603,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>10.28571428571429</v>
+        <v>11.28571428571429</v>
       </c>
       <c r="D3">
         <v>0.2857142857142865</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1614,13 +1620,13 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>8.214285714285714</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="D4">
-        <v>-0.7857142857142865</v>
+        <v>-0.8571428571428577</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1628,16 +1634,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>8.142857142857142</v>
+        <v>8.785714285714286</v>
       </c>
       <c r="D5">
-        <v>-1.857142857142858</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1645,16 +1651,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>8.357142857142858</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-1.642857142857142</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1665,13 +1671,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.785714285714286</v>
+        <v>8.071428571428571</v>
       </c>
       <c r="D7">
-        <v>1.785714285714286</v>
+        <v>2.071428571428571</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1682,13 +1688,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>7.5</v>
+        <v>7.642857142857143</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0.6428571428571432</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1699,10 +1705,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>5.928571428571429</v>
+        <v>6.5</v>
       </c>
       <c r="D9">
-        <v>-0.07142857142857117</v>
+        <v>-0.5</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -1716,13 +1722,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5.857142857142857</v>
+        <v>6.214285714285714</v>
       </c>
       <c r="D10">
-        <v>-0.1428571428571432</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1730,16 +1736,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5.5</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>-1.857142857142857</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1747,16 +1753,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>5.357142857142857</v>
+        <v>6.071428571428571</v>
       </c>
       <c r="D12">
-        <v>-1.642857142857143</v>
+        <v>0.07142857142857117</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1767,13 +1773,13 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>5.357142857142857</v>
+        <v>6.071428571428571</v>
       </c>
       <c r="D13">
-        <v>1.357142857142857</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1801,13 +1807,13 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>3.928571428571428</v>
+        <v>4.071428571428571</v>
       </c>
       <c r="D15">
-        <v>0.9285714285714284</v>
+        <v>0.07142857142857117</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1825,52 +1831,52 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1878,13 +1884,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>25.26</v>
+        <v>26.17</v>
       </c>
       <c r="C2">
-        <v>7.16</v>
+        <v>7.180000000000001</v>
       </c>
       <c r="D2">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1899,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="J2">
-        <v>22.21</v>
+        <v>21.99</v>
       </c>
       <c r="K2">
-        <v>44.01</v>
+        <v>42.92</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1920,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>33.78</v>
+        <v>35.09</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1928,16 +1934,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>17.63</v>
+        <v>18.09</v>
       </c>
       <c r="C3">
-        <v>13.99</v>
+        <v>14.94</v>
       </c>
       <c r="D3">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="E3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1949,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="J3">
-        <v>6.83</v>
+        <v>7.140000000000001</v>
       </c>
       <c r="K3">
-        <v>33.48</v>
+        <v>33.22</v>
       </c>
       <c r="L3">
-        <v>26.38</v>
+        <v>24.83</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1970,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>33.31</v>
+        <v>34.81</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1978,10 +1984,10 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>16.35</v>
+        <v>16.59</v>
       </c>
       <c r="C4">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1999,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.02</v>
+        <v>12.58</v>
       </c>
       <c r="J4">
-        <v>69.27</v>
+        <v>69.08999999999999</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2020,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>30.73</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2028,7 +2034,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>14.38</v>
+        <v>14.32</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2049,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>85.61999999999999</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>99.99999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2078,19 +2084,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>13.31</v>
+        <v>12.16</v>
       </c>
       <c r="C6">
-        <v>17.75</v>
+        <v>18.25</v>
       </c>
       <c r="D6">
-        <v>4.48</v>
+        <v>5.08</v>
       </c>
       <c r="E6">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2102,16 +2108,16 @@
         <v>0.02</v>
       </c>
       <c r="J6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="K6">
-        <v>16.34</v>
+        <v>17</v>
       </c>
       <c r="L6">
-        <v>33.36</v>
+        <v>33.06</v>
       </c>
       <c r="M6">
-        <v>13.07</v>
+        <v>12.67</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2120,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2128,19 +2134,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>7.77</v>
+        <v>7.62</v>
       </c>
       <c r="C7">
-        <v>19.54</v>
+        <v>19.31</v>
       </c>
       <c r="D7">
-        <v>8.959999999999999</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="E7">
-        <v>0.7799999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="F7">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -2149,28 +2155,28 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="K7">
-        <v>5.029999999999999</v>
+        <v>5.609999999999999</v>
       </c>
       <c r="L7">
-        <v>25.13</v>
+        <v>25.87</v>
       </c>
       <c r="M7">
-        <v>27.13</v>
+        <v>25.91</v>
       </c>
       <c r="N7">
-        <v>5.3</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>37.09</v>
+        <v>37.34999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2178,19 +2184,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.93</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>18.45</v>
+        <v>18.34</v>
       </c>
       <c r="D8">
-        <v>15.27</v>
+        <v>15.88</v>
       </c>
       <c r="E8">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="F8">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2202,25 +2208,25 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="L8">
-        <v>11.14</v>
+        <v>11.94</v>
       </c>
       <c r="M8">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="N8">
-        <v>16.45</v>
+        <v>15.19</v>
       </c>
       <c r="O8">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="P8">
-        <v>40.61</v>
+        <v>41.42999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2228,22 +2234,22 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1.37</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>16.23</v>
+        <v>15.01</v>
       </c>
       <c r="D9">
-        <v>27.52</v>
+        <v>26.93</v>
       </c>
       <c r="E9">
-        <v>9.550000000000001</v>
+        <v>10.29</v>
       </c>
       <c r="F9">
-        <v>0.7100000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2255,22 +2261,22 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="L9">
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
       <c r="M9">
-        <v>16.86</v>
+        <v>17.53</v>
       </c>
       <c r="N9">
-        <v>20.33</v>
+        <v>20.71</v>
       </c>
       <c r="O9">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="P9">
-        <v>55.4</v>
+        <v>54.21</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2281,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.52</v>
+        <v>5.23</v>
       </c>
       <c r="D10">
-        <v>26.55</v>
+        <v>26.21</v>
       </c>
       <c r="E10">
-        <v>20.44</v>
+        <v>21.13</v>
       </c>
       <c r="F10">
-        <v>3.15</v>
+        <v>3.77</v>
       </c>
       <c r="G10">
-        <v>0.06999999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2305,22 +2311,22 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.77</v>
+        <v>1.01</v>
       </c>
       <c r="M10">
-        <v>9.529999999999999</v>
+        <v>9.73</v>
       </c>
       <c r="N10">
-        <v>23.94</v>
+        <v>23.33</v>
       </c>
       <c r="O10">
-        <v>10.01</v>
+        <v>9.51</v>
       </c>
       <c r="P10">
-        <v>55.73</v>
+        <v>56.42</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2334,16 +2340,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>15.53</v>
+        <v>14.74</v>
       </c>
       <c r="E11">
-        <v>33.44</v>
+        <v>33.06</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="G11">
-        <v>0.5700000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2358,19 +2364,19 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="M11">
-        <v>3.35</v>
+        <v>4.15</v>
       </c>
       <c r="N11">
-        <v>18.97</v>
+        <v>19.06</v>
       </c>
       <c r="O11">
-        <v>17.05</v>
+        <v>16.48</v>
       </c>
       <c r="P11">
-        <v>60.54</v>
+        <v>60.23</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2387,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>32.58</v>
+        <v>31.22</v>
       </c>
       <c r="F12">
-        <v>30.96</v>
+        <v>31.94</v>
       </c>
       <c r="G12">
-        <v>3.65</v>
+        <v>4.130000000000001</v>
       </c>
       <c r="H12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -2411,16 +2417,16 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.65</v>
+        <v>0.7100000000000001</v>
       </c>
       <c r="N12">
-        <v>10.7</v>
+        <v>11.82</v>
       </c>
       <c r="O12">
-        <v>21.45</v>
+        <v>20.18</v>
       </c>
       <c r="P12">
-        <v>67.19999999999999</v>
+        <v>67.28999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2440,13 +2446,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>54.03</v>
+        <v>51.4</v>
       </c>
       <c r="G13">
-        <v>14.34</v>
+        <v>16.12</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2461,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>4.100000000000001</v>
+        <v>4.58</v>
       </c>
       <c r="O13">
-        <v>27.32</v>
+        <v>27.64</v>
       </c>
       <c r="P13">
-        <v>68.57000000000001</v>
+        <v>67.78</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2493,10 +2499,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.34999999999999</v>
+        <v>79.03999999999999</v>
       </c>
       <c r="H14">
-        <v>3.14</v>
+        <v>3.5</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2514,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="O14">
-        <v>15.3</v>
+        <v>17.2</v>
       </c>
       <c r="P14">
-        <v>84.48999999999999</v>
+        <v>82.53999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2546,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>96.65000000000001</v>
+        <v>96.24000000000001</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2567,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.35</v>
+        <v>3.76</v>
       </c>
       <c r="P15">
-        <v>96.65000000000001</v>
+        <v>96.24000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2588,16 +2594,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2608,13 +2614,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2625,13 +2631,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2639,16 +2645,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2656,16 +2662,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2673,16 +2679,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2693,13 +2699,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2710,13 +2716,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2727,13 +2733,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-14</v>
+        <v>-9</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2744,13 +2750,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2767,7 +2773,7 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2778,13 +2784,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>-25</v>
+        <v>-27</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2792,16 +2798,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>-35</v>
+        <v>-40</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2809,16 +2815,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>-38</v>
+        <v>-45</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2826,16 +2832,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>-41</v>
+        <v>-49</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2845,60 +2851,63 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2944,11 +2953,14 @@
       <c r="O2">
         <v>74</v>
       </c>
-      <c r="P2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2994,161 +3006,173 @@
       <c r="O3">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
         <v>17</v>
       </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
       <c r="H4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4">
         <v>17</v>
       </c>
       <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <v>23</v>
+      </c>
+      <c r="M4">
         <v>18</v>
       </c>
-      <c r="K4">
+      <c r="N4">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>21</v>
+      </c>
+      <c r="P4">
+        <v>28</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>18</v>
+      </c>
+      <c r="P5">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
         <v>17</v>
       </c>
-      <c r="M4">
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>21</v>
+      </c>
+      <c r="I6">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
         <v>14</v>
       </c>
-      <c r="N4">
+      <c r="N6">
         <v>20</v>
       </c>
-      <c r="O4">
+      <c r="O6">
         <v>24</v>
       </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>22</v>
-      </c>
-      <c r="I5">
-        <v>17</v>
-      </c>
-      <c r="J5">
+      <c r="P6">
         <v>21</v>
       </c>
-      <c r="K5">
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
-      <c r="M5">
-        <v>18</v>
-      </c>
-      <c r="N5">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>19</v>
-      </c>
-      <c r="K6">
-        <v>22</v>
-      </c>
-      <c r="L6">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>12</v>
-      </c>
-      <c r="N6">
-        <v>12</v>
-      </c>
-      <c r="O6">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -3194,11 +3218,14 @@
       <c r="O7">
         <v>9</v>
       </c>
-      <c r="P7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3244,11 +3271,14 @@
       <c r="O8">
         <v>5</v>
       </c>
-      <c r="P8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3294,11 +3324,14 @@
       <c r="O9">
         <v>-14</v>
       </c>
-      <c r="P9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3344,11 +3377,14 @@
       <c r="O10">
         <v>-15</v>
       </c>
-      <c r="P10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="P10">
+        <v>-12</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3394,11 +3430,14 @@
       <c r="O11">
         <v>-22</v>
       </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="P11">
+        <v>-22</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -3444,158 +3483,170 @@
       <c r="O12">
         <v>-25</v>
       </c>
-      <c r="P12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12">
+        <v>-27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-2</v>
+      </c>
+      <c r="D13">
+        <v>-5</v>
+      </c>
+      <c r="E13">
+        <v>-7</v>
+      </c>
+      <c r="F13">
+        <v>-6</v>
+      </c>
+      <c r="G13">
+        <v>-6</v>
+      </c>
+      <c r="H13">
+        <v>-14</v>
+      </c>
+      <c r="I13">
+        <v>-22</v>
+      </c>
+      <c r="J13">
+        <v>-32</v>
+      </c>
+      <c r="K13">
+        <v>-34</v>
+      </c>
+      <c r="L13">
+        <v>-45</v>
+      </c>
+      <c r="M13">
+        <v>-49</v>
+      </c>
+      <c r="N13">
+        <v>-51</v>
+      </c>
+      <c r="O13">
+        <v>-41</v>
+      </c>
+      <c r="P13">
+        <v>-40</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>-3</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>-5</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>-10</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>-20</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>-15</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>-19</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>-27</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>-27</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>-33</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-35</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-30</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>-33</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>-27</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>-35</v>
       </c>
-      <c r="P13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="1" t="s">
+      <c r="P14">
+        <v>-45</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>-2</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-1</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>-4</v>
-      </c>
-      <c r="E14">
-        <v>-7</v>
-      </c>
-      <c r="F14">
-        <v>-12</v>
-      </c>
-      <c r="G14">
-        <v>-20</v>
-      </c>
-      <c r="H14">
-        <v>-29</v>
-      </c>
-      <c r="I14">
-        <v>-30</v>
-      </c>
-      <c r="J14">
-        <v>-30</v>
-      </c>
-      <c r="K14">
-        <v>-21</v>
-      </c>
-      <c r="L14">
-        <v>-19</v>
-      </c>
-      <c r="M14">
-        <v>-21</v>
-      </c>
-      <c r="N14">
-        <v>-31</v>
-      </c>
-      <c r="O14">
-        <v>-38</v>
-      </c>
-      <c r="P14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>-2</v>
-      </c>
-      <c r="D15">
-        <v>-5</v>
       </c>
       <c r="E15">
         <v>-7</v>
       </c>
       <c r="F15">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="G15">
-        <v>-6</v>
+        <v>-20</v>
       </c>
       <c r="H15">
-        <v>-14</v>
+        <v>-29</v>
       </c>
       <c r="I15">
-        <v>-22</v>
+        <v>-30</v>
       </c>
       <c r="J15">
-        <v>-32</v>
+        <v>-30</v>
       </c>
       <c r="K15">
-        <v>-34</v>
+        <v>-21</v>
       </c>
       <c r="L15">
-        <v>-45</v>
+        <v>-19</v>
       </c>
       <c r="M15">
+        <v>-21</v>
+      </c>
+      <c r="N15">
+        <v>-31</v>
+      </c>
+      <c r="O15">
+        <v>-38</v>
+      </c>
+      <c r="P15">
         <v>-49</v>
       </c>
-      <c r="N15">
-        <v>-51</v>
-      </c>
-      <c r="O15">
-        <v>-41</v>
-      </c>
-      <c r="P15" t="s">
-        <v>58</v>
+      <c r="Q15" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3613,25 +3664,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3665,25 +3716,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>-40</v>
       </c>
       <c r="G3">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3691,25 +3742,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3717,25 +3768,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>-15</v>
       </c>
       <c r="F5">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3743,25 +3794,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="G6">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3772,22 +3823,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="F7">
-        <v>-51</v>
+        <v>9</v>
       </c>
       <c r="G7">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3795,22 +3846,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="F8">
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
@@ -3821,25 +3872,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="F9">
-        <v>-33</v>
+        <v>-49</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3847,25 +3898,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>-20</v>
+        <v>-3</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>-33</v>
       </c>
       <c r="G10">
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3873,25 +3924,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-20</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>-12</v>
-      </c>
-      <c r="F11">
-        <v>17</v>
-      </c>
       <c r="G11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/THE BEST OF THE BEST 2024.xlsx
+++ b/THE BEST OF THE BEST 2024.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="85">
   <si>
     <t xml:space="preserve">Peter Pan + the Lost Boys </t>
   </si>
@@ -64,40 +64,46 @@
     <t>the   jadey bunch</t>
   </si>
   <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>14-1-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>16-1-0</t>
+  </si>
+  <si>
+    <t>15-2-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -169,39 +175,36 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
     <t>↓3</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -245,6 +248,12 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Week</t>
@@ -687,37 +696,37 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -728,43 +737,43 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -775,19 +784,19 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -796,19 +805,19 @@
         <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
         <v>16</v>
@@ -822,43 +831,43 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -866,43 +875,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>15</v>
       </c>
       <c r="O6" t="s">
         <v>15</v>
@@ -913,46 +922,46 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -960,46 +969,46 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
         <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1007,46 +1016,46 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1054,46 +1063,46 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
       <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
         <v>15</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1101,46 +1110,46 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
       <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
         <v>16</v>
       </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
       <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" t="s">
         <v>20</v>
-      </c>
-      <c r="O11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1148,46 +1157,46 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" t="s">
         <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1195,46 +1204,46 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
         <v>25</v>
-      </c>
-      <c r="O13" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1242,22 +1251,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -1266,22 +1275,22 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" t="s">
         <v>20</v>
       </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
       <c r="O14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1289,46 +1298,46 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1346,13 +1355,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1360,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>6.357142857142857</v>
+        <v>7.357142857142857</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1374,13 +1383,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>6.428571428571429</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1388,13 +1397,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>6.428571428571429</v>
+        <v>7.714285714285714</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1405,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6.857142857142857</v>
+        <v>7.928571428571429</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1419,10 +1428,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>6.857142857142857</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1433,10 +1442,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>7.071428571428571</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1447,10 +1456,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>7.142857142857143</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1458,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>7.714285714285714</v>
+        <v>8.714285714285714</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1472,13 +1481,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>7.785714285714286</v>
+        <v>8.785714285714286</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1486,13 +1495,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>7.785714285714286</v>
+        <v>8.857142857142858</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1500,13 +1509,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>8.285714285714286</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1514,13 +1523,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>8.357142857142858</v>
+        <v>9.071428571428571</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1528,10 +1537,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>8.428571428571429</v>
+        <v>9.5</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1545,10 +1554,10 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <v>9.5</v>
+        <v>10.35714285714286</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1566,16 +1575,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1586,13 +1595,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>12.42857142857143</v>
+        <v>13.64285714285714</v>
       </c>
       <c r="D2">
-        <v>-1.571428571428571</v>
+        <v>-2.357142857142858</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1603,13 +1612,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>11.28571428571429</v>
+        <v>12.85714285714286</v>
       </c>
       <c r="D3">
-        <v>0.2857142857142865</v>
+        <v>0.8571428571428577</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1617,16 +1626,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>9.142857142857142</v>
+        <v>10.5</v>
       </c>
       <c r="D4">
-        <v>-0.8571428571428577</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1634,16 +1643,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>8.785714285714286</v>
+        <v>9.571428571428571</v>
       </c>
       <c r="D5">
-        <v>1.785714285714286</v>
+        <v>-1.428571428571429</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1651,16 +1660,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>8.357142857142858</v>
+        <v>9.571428571428571</v>
       </c>
       <c r="D6">
-        <v>-1.642857142857142</v>
+        <v>-0.4285714285714288</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1671,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>8.071428571428571</v>
+        <v>8.285714285714286</v>
       </c>
       <c r="D7">
-        <v>2.071428571428571</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1688,13 +1697,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>7.642857142857143</v>
+        <v>8.142857142857142</v>
       </c>
       <c r="D8">
-        <v>0.6428571428571432</v>
+        <v>0.1428571428571423</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1705,13 +1714,13 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>6.5</v>
+        <v>7.785714285714286</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-0.2142857142857144</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1722,13 +1731,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6.214285714285714</v>
+        <v>7.5</v>
       </c>
       <c r="D10">
-        <v>0.2142857142857144</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1736,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>6.142857142857143</v>
+        <v>7.428571428571429</v>
       </c>
       <c r="D11">
-        <v>-1.857142857142857</v>
+        <v>0.4285714285714288</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1756,13 +1765,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>6.071428571428571</v>
+        <v>7.071428571428571</v>
       </c>
       <c r="D12">
         <v>0.07142857142857117</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1770,16 +1779,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>6.071428571428571</v>
+        <v>6.785714285714286</v>
       </c>
       <c r="D13">
-        <v>1.071428571428571</v>
+        <v>-2.214285714285714</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1787,16 +1796,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>4.214285714285714</v>
+        <v>5.642857142857143</v>
       </c>
       <c r="D14">
-        <v>0.2142857142857144</v>
+        <v>0.6428571428571432</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1804,16 +1813,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>4.071428571428571</v>
+        <v>4.214285714285714</v>
       </c>
       <c r="D15">
-        <v>0.07142857142857117</v>
+        <v>0.2142857142857144</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1831,66 +1840,66 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>26.17</v>
+        <v>100</v>
       </c>
       <c r="C2">
-        <v>7.180000000000001</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1905,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>21.99</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>42.92</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1926,24 +1935,24 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>35.09</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>18.09</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>14.94</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1955,16 +1964,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>33.22</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>24.83</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1976,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>34.81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>16.59</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2005,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>12.58</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>69.08999999999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2026,15 +2035,15 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>30.91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>14.32</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2043,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2055,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>85.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2084,19 +2093,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>12.16</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>18.25</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>5.08</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -2105,19 +2114,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>33.06</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.67</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -2126,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>35.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2134,22 +2143,22 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>7.62</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>19.31</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>9.379999999999999</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2158,25 +2167,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>5.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>25.87</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>25.91</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>5.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>37.34999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2184,25 +2193,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>18.34</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>15.88</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2211,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>11.94</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>15.19</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>41.42999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2234,19 +2243,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>15.01</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>26.93</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>10.29</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9299999999999999</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2255,28 +2264,28 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3.21</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.53</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>20.71</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>4.18</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>54.21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2287,19 +2296,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.23</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>26.21</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>21.13</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>3.77</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2308,25 +2317,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>9.73</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>23.33</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>9.51</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>56.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2340,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>14.74</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>33.06</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -2361,22 +2370,22 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>4.15</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>19.06</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.48</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>60.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2393,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.22</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>31.94</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>4.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -2414,19 +2423,19 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>0.7100000000000001</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.82</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>20.18</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>67.28999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2446,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.4</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>16.12</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2467,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N13">
-        <v>4.58</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>27.64</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>67.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2499,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>79.03999999999999</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -2520,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.26</v>
+        <v>100</v>
       </c>
       <c r="O14">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>82.53999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2552,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>96.24000000000001</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -2573,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.76</v>
+        <v>100</v>
       </c>
       <c r="P15">
-        <v>96.24000000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2594,16 +2603,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2614,13 +2623,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2631,13 +2640,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2648,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2665,13 +2674,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2679,16 +2688,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2696,16 +2705,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2716,13 +2725,13 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2733,13 +2742,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2750,13 +2759,13 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2764,13 +2773,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-22</v>
+        <v>-19</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>57</v>
@@ -2781,16 +2790,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>-27</v>
+        <v>-21</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2798,16 +2807,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>-40</v>
+        <v>-39</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2815,16 +2824,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>-45</v>
+        <v>-43</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2835,13 +2844,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-49</v>
+        <v>-54</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2851,63 +2860,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>76</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2956,11 +2971,17 @@
       <c r="P2">
         <v>72</v>
       </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="Q2">
+        <v>70</v>
+      </c>
+      <c r="R2">
+        <v>75</v>
+      </c>
+      <c r="S2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3009,11 +3030,17 @@
       <c r="P3">
         <v>42</v>
       </c>
-      <c r="Q3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>44</v>
+      </c>
+      <c r="R3">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3062,11 +3089,17 @@
       <c r="P4">
         <v>28</v>
       </c>
-      <c r="Q4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="Q4">
+        <v>36</v>
+      </c>
+      <c r="R4">
+        <v>38</v>
+      </c>
+      <c r="S4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3115,117 +3148,135 @@
       <c r="P5">
         <v>27</v>
       </c>
-      <c r="Q5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="Q5">
+        <v>24</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-8</v>
+      </c>
+      <c r="C6">
+        <v>-8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="H6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="I6">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>14</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>17</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>20</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>21</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>17</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>18</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>17</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>14</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>20</v>
       </c>
-      <c r="O6">
+      <c r="O7">
         <v>24</v>
       </c>
-      <c r="P6">
+      <c r="P7">
         <v>21</v>
       </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>-8</v>
-      </c>
-      <c r="C7">
-        <v>-8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>11</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
+      <c r="Q7">
+        <v>13</v>
+      </c>
+      <c r="R7">
         <v>7</v>
       </c>
-      <c r="O7">
-        <v>9</v>
-      </c>
-      <c r="P7">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -3274,11 +3325,17 @@
       <c r="P8">
         <v>6</v>
       </c>
-      <c r="Q8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -3327,11 +3384,17 @@
       <c r="P9">
         <v>-9</v>
       </c>
-      <c r="Q9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>-9</v>
+      </c>
+      <c r="R9">
+        <v>-7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3380,223 +3443,253 @@
       <c r="P10">
         <v>-12</v>
       </c>
-      <c r="Q10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>-15</v>
+      </c>
+      <c r="R10">
+        <v>-13</v>
+      </c>
+      <c r="S10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>-6</v>
+      </c>
+      <c r="C11">
+        <v>-4</v>
+      </c>
+      <c r="D11">
+        <v>-9</v>
+      </c>
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11">
+        <v>-15</v>
+      </c>
+      <c r="G11">
+        <v>-15</v>
+      </c>
+      <c r="H11">
+        <v>-21</v>
+      </c>
+      <c r="I11">
+        <v>-19</v>
+      </c>
+      <c r="J11">
+        <v>-14</v>
+      </c>
+      <c r="K11">
+        <v>-20</v>
+      </c>
+      <c r="L11">
+        <v>-21</v>
+      </c>
+      <c r="M11">
+        <v>-13</v>
+      </c>
+      <c r="N11">
+        <v>-16</v>
+      </c>
+      <c r="O11">
+        <v>-25</v>
+      </c>
+      <c r="P11">
+        <v>-27</v>
+      </c>
+      <c r="Q11">
+        <v>-20</v>
+      </c>
+      <c r="R11">
+        <v>-19</v>
+      </c>
+      <c r="S11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>-8</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>-3</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-3</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-2</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>-8</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>-9</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>-12</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>-13</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>-15</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>-9</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>-15</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>-22</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>-22</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>-22</v>
       </c>
-      <c r="Q11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
+      <c r="Q12">
+        <v>-24</v>
+      </c>
+      <c r="R12">
+        <v>-21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>-3</v>
+      </c>
+      <c r="C13">
+        <v>-5</v>
+      </c>
+      <c r="D13">
+        <v>-10</v>
+      </c>
+      <c r="E13">
+        <v>-20</v>
+      </c>
+      <c r="F13">
+        <v>-15</v>
+      </c>
+      <c r="G13">
+        <v>-19</v>
+      </c>
+      <c r="H13">
+        <v>-27</v>
+      </c>
+      <c r="I13">
+        <v>-27</v>
+      </c>
+      <c r="J13">
+        <v>-33</v>
+      </c>
+      <c r="K13">
+        <v>-35</v>
+      </c>
+      <c r="L13">
+        <v>-30</v>
+      </c>
+      <c r="M13">
+        <v>-33</v>
+      </c>
+      <c r="N13">
+        <v>-27</v>
+      </c>
+      <c r="O13">
+        <v>-35</v>
+      </c>
+      <c r="P13">
+        <v>-45</v>
+      </c>
+      <c r="Q13">
+        <v>-39</v>
+      </c>
+      <c r="R13">
+        <v>-39</v>
+      </c>
+      <c r="S13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>-2</v>
+      </c>
+      <c r="D14">
+        <v>-5</v>
+      </c>
+      <c r="E14">
+        <v>-7</v>
+      </c>
+      <c r="F14">
         <v>-6</v>
       </c>
-      <c r="C12">
-        <v>-4</v>
-      </c>
-      <c r="D12">
-        <v>-9</v>
-      </c>
-      <c r="E12">
-        <v>-10</v>
-      </c>
-      <c r="F12">
-        <v>-15</v>
-      </c>
-      <c r="G12">
-        <v>-15</v>
-      </c>
-      <c r="H12">
-        <v>-21</v>
-      </c>
-      <c r="I12">
-        <v>-19</v>
-      </c>
-      <c r="J12">
+      <c r="G14">
+        <v>-6</v>
+      </c>
+      <c r="H14">
         <v>-14</v>
       </c>
-      <c r="K12">
-        <v>-20</v>
-      </c>
-      <c r="L12">
-        <v>-21</v>
-      </c>
-      <c r="M12">
-        <v>-13</v>
-      </c>
-      <c r="N12">
-        <v>-16</v>
-      </c>
-      <c r="O12">
-        <v>-25</v>
-      </c>
-      <c r="P12">
-        <v>-27</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>-2</v>
-      </c>
-      <c r="D13">
-        <v>-5</v>
-      </c>
-      <c r="E13">
-        <v>-7</v>
-      </c>
-      <c r="F13">
-        <v>-6</v>
-      </c>
-      <c r="G13">
-        <v>-6</v>
-      </c>
-      <c r="H13">
-        <v>-14</v>
-      </c>
-      <c r="I13">
+      <c r="I14">
         <v>-22</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>-32</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-34</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-45</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>-49</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>-51</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>-41</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>-40</v>
       </c>
-      <c r="Q13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>-3</v>
-      </c>
-      <c r="C14">
-        <v>-5</v>
-      </c>
-      <c r="D14">
-        <v>-10</v>
-      </c>
-      <c r="E14">
-        <v>-20</v>
-      </c>
-      <c r="F14">
-        <v>-15</v>
-      </c>
-      <c r="G14">
-        <v>-19</v>
-      </c>
-      <c r="H14">
-        <v>-27</v>
-      </c>
-      <c r="I14">
-        <v>-27</v>
-      </c>
-      <c r="J14">
-        <v>-33</v>
-      </c>
-      <c r="K14">
-        <v>-35</v>
-      </c>
-      <c r="L14">
-        <v>-30</v>
-      </c>
-      <c r="M14">
-        <v>-33</v>
-      </c>
-      <c r="N14">
-        <v>-27</v>
-      </c>
-      <c r="O14">
-        <v>-35</v>
-      </c>
-      <c r="P14">
-        <v>-45</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="Q14">
+        <v>-40</v>
+      </c>
+      <c r="R14">
+        <v>-43</v>
+      </c>
+      <c r="S14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3645,8 +3738,14 @@
       <c r="P15">
         <v>-49</v>
       </c>
-      <c r="Q15" t="s">
-        <v>59</v>
+      <c r="Q15">
+        <v>-53</v>
+      </c>
+      <c r="R15">
+        <v>-54</v>
+      </c>
+      <c r="S15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3755,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3664,25 +3763,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3690,25 +3789,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>-19</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>-43</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3716,25 +3815,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>-19</v>
       </c>
       <c r="F3">
-        <v>-40</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3742,25 +3841,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-24</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>-40</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3768,25 +3867,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-15</v>
+        <v>-24</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3794,25 +3893,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>-15</v>
       </c>
       <c r="F6">
-        <v>-14</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3820,25 +3919,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>-26</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>-14</v>
       </c>
       <c r="G7">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3849,22 +3948,22 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8">
-        <v>-16</v>
+        <v>-26</v>
       </c>
       <c r="F8">
-        <v>-51</v>
+        <v>9</v>
       </c>
       <c r="G8">
         <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3872,22 +3971,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>-15</v>
+        <v>-16</v>
       </c>
       <c r="F9">
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -3898,51 +3997,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>-3</v>
+        <v>-15</v>
       </c>
       <c r="F10">
-        <v>-33</v>
+        <v>-49</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-20</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
